--- a/data/trans_orig/P41A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41A_R-Habitat-trans_orig.xlsx
@@ -760,16 +760,16 @@
         <v>873</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7692</v>
+        <v>7912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004171973058074934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001268545257088536</v>
+        <v>0.001268381521161055</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01117418552090542</v>
+        <v>0.01149357040440196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -778,19 +778,19 @@
         <v>2872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7999</v>
+        <v>7595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002080409412237561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006352919187728378</v>
+        <v>0.0006278638105179329</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005794876589684645</v>
+        <v>0.005501874760211258</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>26320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18069</v>
+        <v>18019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38895</v>
+        <v>38400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03803189433726244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02610977849624973</v>
+        <v>0.02603812123955204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05620263409559598</v>
+        <v>0.05548733684443413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -828,19 +828,19 @@
         <v>14103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8190</v>
+        <v>7825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22863</v>
+        <v>23205</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02048846149335246</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01189739781197883</v>
+        <v>0.01136807562221466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03321399314845828</v>
+        <v>0.03371142736529543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -849,19 +849,19 @@
         <v>40423</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29547</v>
+        <v>29220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54978</v>
+        <v>56274</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02928363007395752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02140493961078396</v>
+        <v>0.02116815247935718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03982756539429084</v>
+        <v>0.04076684584683315</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>65529</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52153</v>
+        <v>51082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84188</v>
+        <v>82300</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09468881797766167</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07536073592893879</v>
+        <v>0.07381327132643377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1216521355542544</v>
+        <v>0.1189234344036206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -899,19 +899,19 @@
         <v>57880</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43777</v>
+        <v>44177</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73807</v>
+        <v>74240</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08408442068509091</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06359625359307862</v>
+        <v>0.06417839685592716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1072236349445346</v>
+        <v>0.1078521465844107</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>117</v>
@@ -920,19 +920,19 @@
         <v>123408</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>103215</v>
+        <v>101995</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>147611</v>
+        <v>145529</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08940079534868751</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07477182436350038</v>
+        <v>0.0738885035204787</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1069339922175483</v>
+        <v>0.1054257577309965</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>213297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>188202</v>
+        <v>187276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>237212</v>
+        <v>237908</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3082137792028886</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2719516420263901</v>
+        <v>0.2706140510412966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3427713803225882</v>
+        <v>0.3437770539970232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>183</v>
@@ -970,19 +970,19 @@
         <v>182853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>160541</v>
+        <v>161630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>204761</v>
+        <v>206261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2656389445059464</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.233224923436439</v>
+        <v>0.2348082206499707</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2974660920076949</v>
+        <v>0.2996453001712487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -991,19 +991,19 @@
         <v>396150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>359515</v>
+        <v>364053</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>428014</v>
+        <v>432188</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2869832761303575</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2604437035424298</v>
+        <v>0.2637310899466808</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3100666182476341</v>
+        <v>0.3130902324277663</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>14392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6768</v>
+        <v>7593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22341</v>
+        <v>24445</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02079669872298328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009779526936776067</v>
+        <v>0.01097123541415864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03228229001870511</v>
+        <v>0.03532350257504939</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1041,19 +1041,19 @@
         <v>9773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4966</v>
+        <v>5072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17207</v>
+        <v>17924</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01419806407718349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007214593501735007</v>
+        <v>0.007367779680151764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02499718895146313</v>
+        <v>0.02603899992006694</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -1062,19 +1062,19 @@
         <v>24165</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15666</v>
+        <v>16329</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35280</v>
+        <v>34518</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01750620249159746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01134917767131104</v>
+        <v>0.01182959147831387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02555817639261165</v>
+        <v>0.02500617212170245</v>
       </c>
     </row>
     <row r="9">
@@ -1138,19 +1138,19 @@
         <v>372505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>349311</v>
+        <v>347433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>399786</v>
+        <v>399630</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5382688097592041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5047535725238429</v>
+        <v>0.5020401239071201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5776897705060861</v>
+        <v>0.577465458006834</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>430</v>
@@ -1159,19 +1159,19 @@
         <v>420870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>397000</v>
+        <v>394472</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>447405</v>
+        <v>446732</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6114181361803518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5767408058591742</v>
+        <v>0.5730686299270694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6499669147001123</v>
+        <v>0.6489885257147784</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>807</v>
@@ -1180,19 +1180,19 @@
         <v>793375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>759592</v>
+        <v>757119</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>830283</v>
+        <v>829553</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5747456865431625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5502725936122946</v>
+        <v>0.5484809870075835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6014829879544378</v>
+        <v>0.6009544432995353</v>
       </c>
     </row>
     <row r="11">
@@ -1284,19 +1284,19 @@
         <v>4969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1929</v>
+        <v>1944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11089</v>
+        <v>11945</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005177739042306954</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002010056843769746</v>
+        <v>0.00202543113339214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01155475652106687</v>
+        <v>0.01244636652073977</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1305,19 +1305,19 @@
         <v>3924</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9868</v>
+        <v>8939</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.00406955447704381</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001028732082207642</v>
+        <v>0.001033012053805316</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0102335681365332</v>
+        <v>0.009269920439863138</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1326,19 +1326,19 @@
         <v>8893</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4573</v>
+        <v>3982</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16928</v>
+        <v>16029</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.004622314435328775</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002376795104772819</v>
+        <v>0.002069843842467491</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008798283941268614</v>
+        <v>0.008331237924965953</v>
       </c>
     </row>
     <row r="13">
@@ -1355,19 +1355,19 @@
         <v>33487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23754</v>
+        <v>23818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46893</v>
+        <v>47180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03489388198620005</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02475219289883041</v>
+        <v>0.02481837895001214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04886331083185821</v>
+        <v>0.04916202861316917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1376,19 +1376,19 @@
         <v>25607</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16800</v>
+        <v>17266</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37778</v>
+        <v>38401</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02655458020684912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01742168587103119</v>
+        <v>0.01790545538693656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03917589487601105</v>
+        <v>0.03982207056266576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1397,19 +1397,19 @@
         <v>59094</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45036</v>
+        <v>46140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75967</v>
+        <v>76452</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03071420509982457</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02340748751333764</v>
+        <v>0.0239815656844348</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03948396735833389</v>
+        <v>0.03973610717244589</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>81741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64949</v>
+        <v>64866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102992</v>
+        <v>101803</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0851752517955978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06767782595719282</v>
+        <v>0.06759064367618155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1073182836656029</v>
+        <v>0.1060797864672639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -1447,19 +1447,19 @@
         <v>94740</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76430</v>
+        <v>77096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113651</v>
+        <v>115738</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0982465501336925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07925899034498082</v>
+        <v>0.07994973184318843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1178572776511377</v>
+        <v>0.1200213519691128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>161</v>
@@ -1468,19 +1468,19 @@
         <v>176481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>151555</v>
+        <v>149760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>205142</v>
+        <v>201531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09172661604457272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07877126013651829</v>
+        <v>0.07783825022547201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1066228684582999</v>
+        <v>0.104746324703708</v>
       </c>
     </row>
     <row r="15">
@@ -1497,19 +1497,19 @@
         <v>341134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>311416</v>
+        <v>311943</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>374122</v>
+        <v>371469</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3554656514949254</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3244991063365147</v>
+        <v>0.3250481304368384</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3898394813841226</v>
+        <v>0.3870751044813308</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>235</v>
@@ -1518,19 +1518,19 @@
         <v>249110</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>220580</v>
+        <v>221385</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>277001</v>
+        <v>280380</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2583298064467264</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2287440842269908</v>
+        <v>0.2295793576790416</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2872533284565771</v>
+        <v>0.2907569370756632</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>547</v>
@@ -1539,19 +1539,19 @@
         <v>590244</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>552869</v>
+        <v>551459</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>636005</v>
+        <v>632336</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.30678094657253</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2873550254385095</v>
+        <v>0.2866220365417356</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3305654434626034</v>
+        <v>0.3286582144630862</v>
       </c>
     </row>
     <row r="16">
@@ -1568,19 +1568,19 @@
         <v>18749</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11140</v>
+        <v>10956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30384</v>
+        <v>29468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01953623303971993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01160760137914882</v>
+        <v>0.01141632152349991</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03166059480546627</v>
+        <v>0.03070569129434793</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1589,19 +1589,19 @@
         <v>21681</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14044</v>
+        <v>13389</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32514</v>
+        <v>32022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02248333647175828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01456403545318628</v>
+        <v>0.01388441660209833</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03371705649672178</v>
+        <v>0.03320683992972609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1610,19 +1610,19 @@
         <v>40429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29270</v>
+        <v>28674</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55150</v>
+        <v>54284</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02101332793597961</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01521326662256722</v>
+        <v>0.01490360171422992</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0286642345601458</v>
+        <v>0.02821407000036737</v>
       </c>
     </row>
     <row r="17">
@@ -1686,19 +1686,19 @@
         <v>479603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>443430</v>
+        <v>448047</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>508729</v>
+        <v>511402</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4997512426412499</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.462058747500612</v>
+        <v>0.4668696497943143</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5301012600176114</v>
+        <v>0.5328863194538913</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>532</v>
@@ -1707,19 +1707,19 @@
         <v>569247</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>535393</v>
+        <v>536380</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>598811</v>
+        <v>601763</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5903161722639299</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5552093510091601</v>
+        <v>0.5562328054545322</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6209742801814124</v>
+        <v>0.6240357411491849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>989</v>
@@ -1728,19 +1728,19 @@
         <v>1048850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>999963</v>
+        <v>1003740</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1092487</v>
+        <v>1092160</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5451425899117643</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5197332584768394</v>
+        <v>0.5216967296714655</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5678230189595534</v>
+        <v>0.5676530811424023</v>
       </c>
     </row>
     <row r="19">
@@ -1832,19 +1832,19 @@
         <v>5839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2023</v>
+        <v>1976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14433</v>
+        <v>13671</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008652586266371136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002998064708836826</v>
+        <v>0.002927488935566858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0213862667949473</v>
+        <v>0.02025656292050663</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1853,19 +1853,19 @@
         <v>6468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2554</v>
+        <v>2899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13599</v>
+        <v>13874</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009565764404504663</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003776806295772639</v>
+        <v>0.004287776616692134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02011258422501538</v>
+        <v>0.02051849056477266</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1874,19 +1874,19 @@
         <v>12307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6052</v>
+        <v>6493</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21824</v>
+        <v>21917</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009109604665172015</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004479233384839583</v>
+        <v>0.004806090885420803</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01615355882216714</v>
+        <v>0.01622223511507426</v>
       </c>
     </row>
     <row r="21">
@@ -1903,19 +1903,19 @@
         <v>48497</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35120</v>
+        <v>35987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64039</v>
+        <v>63734</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07186031894106219</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05203937150189898</v>
+        <v>0.05332352774370968</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09488928210265669</v>
+        <v>0.09443689464053918</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -1924,19 +1924,19 @@
         <v>36448</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>26654</v>
+        <v>25612</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49991</v>
+        <v>50007</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05390533624509831</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03941958205012717</v>
+        <v>0.03787899102222934</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07393496340589124</v>
+        <v>0.07395891690454041</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -1945,19 +1945,19 @@
         <v>84945</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68407</v>
+        <v>67101</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>105536</v>
+        <v>104821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06287438607698938</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05063295421237021</v>
+        <v>0.04966661907670771</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07811494326586267</v>
+        <v>0.07758552198428331</v>
       </c>
     </row>
     <row r="22">
@@ -1974,19 +1974,19 @@
         <v>66367</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52329</v>
+        <v>51384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82284</v>
+        <v>83691</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09833796536170479</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07753786588132205</v>
+        <v>0.07613787139477715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1219235784836162</v>
+        <v>0.1240081092834728</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -1995,19 +1995,19 @@
         <v>63529</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49378</v>
+        <v>50434</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77697</v>
+        <v>80557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09395649389014098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07302761336663571</v>
+        <v>0.07458933178753016</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1149103790077078</v>
+        <v>0.1191406348502917</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -2016,19 +2016,19 @@
         <v>129895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>109054</v>
+        <v>109741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151328</v>
+        <v>153656</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09614516968175278</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0807192586960275</v>
+        <v>0.08122721186825414</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1120092818909963</v>
+        <v>0.113732342207245</v>
       </c>
     </row>
     <row r="23">
@@ -2045,19 +2045,19 @@
         <v>202074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>179368</v>
+        <v>177132</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>227587</v>
+        <v>226082</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2994215047606824</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2657774500508212</v>
+        <v>0.2624632942397838</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3372251194554809</v>
+        <v>0.3349941633526431</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>162</v>
@@ -2066,19 +2066,19 @@
         <v>156604</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>135462</v>
+        <v>135635</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>178353</v>
+        <v>177826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2316106200733254</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2003421086309261</v>
+        <v>0.2005976957334604</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2637760090832013</v>
+        <v>0.2629965668123129</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>352</v>
@@ -2087,19 +2087,19 @@
         <v>358678</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>328455</v>
+        <v>326412</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>392013</v>
+        <v>388697</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.265484181201415</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2431140029849681</v>
+        <v>0.2416021462849491</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.290157845957572</v>
+        <v>0.2877035601362851</v>
       </c>
     </row>
     <row r="24">
@@ -2116,19 +2116,19 @@
         <v>12578</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6358</v>
+        <v>6416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20913</v>
+        <v>20972</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.018638028913387</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00942131726627353</v>
+        <v>0.00950738174688593</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0309874062091496</v>
+        <v>0.03107438241315393</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2137,19 +2137,19 @@
         <v>22059</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14284</v>
+        <v>14297</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33399</v>
+        <v>31822</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03262377134602793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02112578233590081</v>
+        <v>0.02114396891115273</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04939577623639047</v>
+        <v>0.0470638612344625</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -2158,19 +2158,19 @@
         <v>34637</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24697</v>
+        <v>24884</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>48236</v>
+        <v>47861</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02563747551169402</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01828039654265178</v>
+        <v>0.0184188473403683</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03570334446002454</v>
+        <v>0.03542555998725106</v>
       </c>
     </row>
     <row r="25">
@@ -2234,19 +2234,19 @@
         <v>339526</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>314371</v>
+        <v>313722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>365968</v>
+        <v>365088</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5030895957567926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4658165409698017</v>
+        <v>0.464854958788271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5422691140349968</v>
+        <v>0.5409657726047934</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>399</v>
@@ -2255,19 +2255,19 @@
         <v>391044</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>365030</v>
+        <v>364493</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>417204</v>
+        <v>417280</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5783380140409027</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5398639131646811</v>
+        <v>0.5390689552595607</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6170270409613655</v>
+        <v>0.6171400623476211</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>723</v>
@@ -2276,19 +2276,19 @@
         <v>730570</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>694914</v>
+        <v>693875</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>767242</v>
+        <v>767872</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5407491828629769</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5143573069985886</v>
+        <v>0.5135884325435968</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5678927962850721</v>
+        <v>0.5683594955767736</v>
       </c>
     </row>
     <row r="27">
@@ -2383,16 +2383,16 @@
         <v>884</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8965</v>
+        <v>8814</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003778369907576858</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0009420449941506927</v>
+        <v>0.0009414537669077636</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009550804818099591</v>
+        <v>0.009389937656768151</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2401,19 +2401,19 @@
         <v>5281</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11406</v>
+        <v>12416</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005115999954313751</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001926412836706893</v>
+        <v>0.001932955977495477</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01105069589352317</v>
+        <v>0.01202907485416616</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2422,19 +2422,19 @@
         <v>8827</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4275</v>
+        <v>4160</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15630</v>
+        <v>17097</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004478918249277279</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002168925113728776</v>
+        <v>0.002110960782384732</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.007930244756244939</v>
+        <v>0.008675037700872313</v>
       </c>
     </row>
     <row r="29">
@@ -2451,19 +2451,19 @@
         <v>29501</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20154</v>
+        <v>19871</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40897</v>
+        <v>41393</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03142844007285466</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02147053595007014</v>
+        <v>0.02116919333420393</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04356887823243712</v>
+        <v>0.04409668027207216</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2472,19 +2472,19 @@
         <v>31389</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22327</v>
+        <v>21570</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44745</v>
+        <v>45320</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03041024260138672</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02163071947472421</v>
+        <v>0.02089743231882198</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04334964710551263</v>
+        <v>0.04390655447149486</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -2493,19 +2493,19 @@
         <v>60891</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47095</v>
+        <v>46452</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76393</v>
+        <v>76110</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03089518608988643</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02389543062819503</v>
+        <v>0.0235691434623169</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03876100837336923</v>
+        <v>0.03861729871554497</v>
       </c>
     </row>
     <row r="30">
@@ -2522,19 +2522,19 @@
         <v>117060</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97231</v>
+        <v>99165</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>136280</v>
+        <v>136983</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1247066340809429</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1035825860607971</v>
+        <v>0.1056426042899911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1451816733317987</v>
+        <v>0.1459313237739319</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>124</v>
@@ -2543,19 +2543,19 @@
         <v>127886</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>107102</v>
+        <v>108747</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>149044</v>
+        <v>153647</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1238969927393483</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1037612520970513</v>
+        <v>0.1053553667270519</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1443952330342056</v>
+        <v>0.1488548157305469</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>242</v>
@@ -2564,19 +2564,19 @@
         <v>244946</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216560</v>
+        <v>216411</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>274410</v>
+        <v>279609</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1242826058523532</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1098798924265114</v>
+        <v>0.1098043920568095</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.139232030011493</v>
+        <v>0.1418700331627083</v>
       </c>
     </row>
     <row r="31">
@@ -2593,19 +2593,19 @@
         <v>325168</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>295335</v>
+        <v>299059</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>353093</v>
+        <v>356074</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3464085838330734</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.314626571797965</v>
+        <v>0.3185936782555392</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3761575042478294</v>
+        <v>0.3793330131480723</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>225</v>
@@ -2614,19 +2614,19 @@
         <v>234092</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>208442</v>
+        <v>208873</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>262083</v>
+        <v>261911</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2267897819182503</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2019398251623356</v>
+        <v>0.2023579220123468</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2539081329521604</v>
+        <v>0.2537417099123378</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>567</v>
@@ -2635,19 +2635,19 @@
         <v>559260</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>522627</v>
+        <v>519051</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>597806</v>
+        <v>598063</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2837614015856015</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2651741178739829</v>
+        <v>0.2633601069192752</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3033190767158733</v>
+        <v>0.3034496168208391</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         <v>16025</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9592</v>
+        <v>9621</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26117</v>
+        <v>25277</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.017072266880554</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01021833957442797</v>
+        <v>0.01024930792318669</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02782334699396512</v>
+        <v>0.0269280980275275</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2685,19 +2685,19 @@
         <v>14889</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8587</v>
+        <v>8677</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25270</v>
+        <v>24686</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01442427078644846</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008319052288664879</v>
+        <v>0.008406320685037846</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0244817390826471</v>
+        <v>0.02391579311881295</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -2706,19 +2706,19 @@
         <v>30914</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21595</v>
+        <v>21302</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>43199</v>
+        <v>44613</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01568544899538451</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01095721543234475</v>
+        <v>0.01080848717797321</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02191858464287171</v>
+        <v>0.02263595459214825</v>
       </c>
     </row>
     <row r="33">
@@ -2782,19 +2782,19 @@
         <v>447382</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>416898</v>
+        <v>415774</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>477632</v>
+        <v>476679</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4766057052249982</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4441301316133426</v>
+        <v>0.442933199491198</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5088313575443276</v>
+        <v>0.5078158352881793</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>592</v>
@@ -2803,19 +2803,19 @@
         <v>618660</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>587607</v>
+        <v>586135</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>651453</v>
+        <v>650778</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5993627120002524</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5692780475446947</v>
+        <v>0.5678518909952589</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6311325712607062</v>
+        <v>0.6304787981693311</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1072</v>
@@ -2824,19 +2824,19 @@
         <v>1066043</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1020832</v>
+        <v>1023152</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1107335</v>
+        <v>1110857</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5408964392274971</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5179571096015543</v>
+        <v>0.5191345643258736</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5618475612774281</v>
+        <v>0.5636348141408756</v>
       </c>
     </row>
     <row r="35">
@@ -2928,19 +2928,19 @@
         <v>14355</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7570</v>
+        <v>7706</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23641</v>
+        <v>24770</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.004396287396976971</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002318407899241498</v>
+        <v>0.002359860774983325</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.007240209289427283</v>
+        <v>0.007585998629573529</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>18</v>
@@ -2949,19 +2949,19 @@
         <v>18545</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11145</v>
+        <v>11599</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>28517</v>
+        <v>28576</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005517604864312998</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003315883876562329</v>
+        <v>0.00345097471651055</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008484510737544998</v>
+        <v>0.008502194791220163</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -2970,19 +2970,19 @@
         <v>32900</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22607</v>
+        <v>23216</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>45984</v>
+        <v>45865</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004965044985400517</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003411750518429645</v>
+        <v>0.003503557157273054</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.006939675297035065</v>
+        <v>0.006921679480207818</v>
       </c>
     </row>
     <row r="37">
@@ -2999,19 +2999,19 @@
         <v>137805</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>115237</v>
+        <v>115692</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>161267</v>
+        <v>161541</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0422030776544729</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0352914508787979</v>
+        <v>0.03543071655466393</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04938827892730063</v>
+        <v>0.04947223355546392</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>105</v>
@@ -3020,19 +3020,19 @@
         <v>107548</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>88906</v>
+        <v>86455</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>130784</v>
+        <v>128816</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03199861468677974</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02645213958927388</v>
+        <v>0.02572291445344041</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03891220917624737</v>
+        <v>0.03832672334342672</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>238</v>
@@ -3041,19 +3041,19 @@
         <v>245353</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>217368</v>
+        <v>217219</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>278454</v>
+        <v>279012</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0370271431687192</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03280383144002005</v>
+        <v>0.03278139714063766</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04202250436207076</v>
+        <v>0.04210669586054969</v>
       </c>
     </row>
     <row r="38">
@@ -3070,19 +3070,19 @@
         <v>330696</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>298160</v>
+        <v>298679</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>369076</v>
+        <v>367858</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1012762808770724</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09131203878523367</v>
+        <v>0.09147090760670393</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.113030179341267</v>
+        <v>0.112657052108573</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>334</v>
@@ -3091,19 +3091,19 @@
         <v>344035</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>312770</v>
+        <v>312771</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>382102</v>
+        <v>380309</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1023605091016613</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09305824332557953</v>
+        <v>0.09305876856432925</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1136867586299024</v>
+        <v>0.1131530882206378</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>647</v>
@@ -3112,19 +3112,19 @@
         <v>674731</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>626034</v>
+        <v>628870</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>729761</v>
+        <v>724327</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1018262259624575</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09447717161764473</v>
+        <v>0.09490513057583572</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1101309619134255</v>
+        <v>0.1093108962969054</v>
       </c>
     </row>
     <row r="39">
@@ -3141,19 +3141,19 @@
         <v>1081673</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1025232</v>
+        <v>1028755</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1134703</v>
+        <v>1136444</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3312640823272583</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3139787982584193</v>
+        <v>0.3150578955127126</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3475044051372566</v>
+        <v>0.3480376965975115</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>805</v>
@@ -3162,19 +3162,19 @@
         <v>822658</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>774923</v>
+        <v>776286</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>874027</v>
+        <v>872973</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2447652837213346</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2305626709152299</v>
+        <v>0.2309682406070735</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2600488601060706</v>
+        <v>0.259735490965779</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1853</v>
@@ -3183,19 +3183,19 @@
         <v>1904332</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1834599</v>
+        <v>1831490</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1975727</v>
+        <v>1976479</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2873899347020378</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2768662660114473</v>
+        <v>0.2763971939868483</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2981644987323762</v>
+        <v>0.2982780409824152</v>
       </c>
     </row>
     <row r="40">
@@ -3212,19 +3212,19 @@
         <v>61745</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>48400</v>
+        <v>48262</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>81197</v>
+        <v>81827</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01890940598775125</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01482252478543181</v>
+        <v>0.01478030427789421</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02486659099074142</v>
+        <v>0.02505976410151065</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>67</v>
@@ -3233,19 +3233,19 @@
         <v>68401</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>52908</v>
+        <v>53228</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>87107</v>
+        <v>87375</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.020351464217854</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01574174534848995</v>
+        <v>0.01583700255716562</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02591703797939124</v>
+        <v>0.02599670659720221</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>124</v>
@@ -3254,19 +3254,19 @@
         <v>130146</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>110558</v>
+        <v>109368</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>155224</v>
+        <v>156316</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01964085054757615</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01668477935439929</v>
+        <v>0.01650508549697539</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02342537981154603</v>
+        <v>0.02359031627321434</v>
       </c>
     </row>
     <row r="41">
@@ -3330,19 +3330,19 @@
         <v>1639015</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1587431</v>
+        <v>1580854</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1700006</v>
+        <v>1697913</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5019508657564682</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4861532621728573</v>
+        <v>0.4841389648117163</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5206294088144907</v>
+        <v>0.5199883450010823</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1953</v>
@@ -3351,19 +3351,19 @@
         <v>1999822</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1943505</v>
+        <v>1945714</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2058088</v>
+        <v>2057656</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5950065234080574</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5782504911505431</v>
+        <v>0.5789077115676583</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6123422718538758</v>
+        <v>0.6122137411073098</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3591</v>
@@ -3372,19 +3372,19 @@
         <v>3638837</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3553741</v>
+        <v>3552948</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3713991</v>
+        <v>3717846</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5491508006338088</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.536308507329209</v>
+        <v>0.5361888666338477</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5604924578188258</v>
+        <v>0.561074283818336</v>
       </c>
     </row>
     <row r="43">
@@ -3716,19 +3716,19 @@
         <v>3936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9934</v>
+        <v>9426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005595004033789168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001483930699222777</v>
+        <v>0.001473141872658529</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01412142125106963</v>
+        <v>0.01339867827663061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3737,19 +3737,19 @@
         <v>3979</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1038</v>
+        <v>1059</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9255</v>
+        <v>9293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005708923061056718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001489687791375572</v>
+        <v>0.001518546684873811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01327743701942017</v>
+        <v>0.01333161911594213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3758,19 +3758,19 @@
         <v>7915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3518</v>
+        <v>3753</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14891</v>
+        <v>14546</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005651702485662059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002511803425347151</v>
+        <v>0.002679434382310973</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01063275007362454</v>
+        <v>0.01038606400716337</v>
       </c>
     </row>
     <row r="5">
@@ -3787,19 +3787,19 @@
         <v>44004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33090</v>
+        <v>33265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56971</v>
+        <v>59400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06255221284066326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04703864920920961</v>
+        <v>0.0472877028466672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08098519463358124</v>
+        <v>0.08443937264683073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -3808,19 +3808,19 @@
         <v>55740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42507</v>
+        <v>42669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73413</v>
+        <v>72630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07996599910751323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06098138842722476</v>
+        <v>0.06121418752562629</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.105319315046774</v>
+        <v>0.1041969293144044</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -3829,19 +3829,19 @@
         <v>99744</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79729</v>
+        <v>80930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120394</v>
+        <v>120863</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07121919978970853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05692849885117984</v>
+        <v>0.0577856461607446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08596375374554706</v>
+        <v>0.08629859281472341</v>
       </c>
     </row>
     <row r="6">
@@ -3858,19 +3858,19 @@
         <v>60048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44673</v>
+        <v>45722</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76133</v>
+        <v>78247</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08535972946860684</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06350358652273587</v>
+        <v>0.06499462430636817</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1082253756618464</v>
+        <v>0.1112296905715061</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -3879,19 +3879,19 @@
         <v>64635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50786</v>
+        <v>50534</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81832</v>
+        <v>81329</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09272664991785753</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07285854672438699</v>
+        <v>0.07249745640940275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1173978548333813</v>
+        <v>0.1166757826650899</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>120</v>
@@ -3900,19 +3900,19 @@
         <v>124683</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104325</v>
+        <v>103536</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>145948</v>
+        <v>146535</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08902630734029335</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07449039684645867</v>
+        <v>0.07392673280375786</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1042099868558747</v>
+        <v>0.104629030508459</v>
       </c>
     </row>
     <row r="7">
@@ -3929,7 +3929,7 @@
         <v>212422</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>189342</v>
+        <v>187860</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>238092</v>
@@ -3938,10 +3938,10 @@
         <v>0.3019639450890279</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2691541076383148</v>
+        <v>0.2670477408434852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.338453927842607</v>
+        <v>0.3384546039324408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -3950,19 +3950,19 @@
         <v>148631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127262</v>
+        <v>127552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170774</v>
+        <v>172194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2132288673614514</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.182572924364392</v>
+        <v>0.1829879223969424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.244995283188667</v>
+        <v>0.2470321255277049</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>345</v>
@@ -3971,19 +3971,19 @@
         <v>361053</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>327728</v>
+        <v>330890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>396765</v>
+        <v>395124</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2577997553601423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2340046400112628</v>
+        <v>0.2362623935805748</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2832988765617238</v>
+        <v>0.2821270771512195</v>
       </c>
     </row>
     <row r="8">
@@ -4000,19 +4000,19 @@
         <v>13402</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7756</v>
+        <v>7106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22714</v>
+        <v>21964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01905137140417879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01102501838511611</v>
+        <v>0.0101013170206241</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03228907697097589</v>
+        <v>0.03122197806412585</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -4021,19 +4021,19 @@
         <v>14316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7824</v>
+        <v>7414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23221</v>
+        <v>23542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02053800386021963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01122392064695919</v>
+        <v>0.01063602403336615</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03331394850305019</v>
+        <v>0.03377374946464513</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -4042,19 +4042,19 @@
         <v>27718</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18418</v>
+        <v>18871</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40092</v>
+        <v>40952</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01979128080108353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01315072694430036</v>
+        <v>0.01347409083985578</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02862641594893382</v>
+        <v>0.02924077441352339</v>
       </c>
     </row>
     <row r="9">
@@ -4118,19 +4118,19 @@
         <v>369657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>341970</v>
+        <v>343194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>395196</v>
+        <v>396891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.525477737163734</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4861197093422156</v>
+        <v>0.487859981890579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5617820466217874</v>
+        <v>0.5641917260735443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>384</v>
@@ -4139,19 +4139,19 @@
         <v>409748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>381790</v>
+        <v>382883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>435036</v>
+        <v>437703</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5878315566919015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5477224170506765</v>
+        <v>0.5492906995844217</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6241096705266507</v>
+        <v>0.6279366585545983</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>731</v>
@@ -4160,19 +4160,19 @@
         <v>779405</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>741800</v>
+        <v>740908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>818269</v>
+        <v>818359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5565117542231102</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.529660907434786</v>
+        <v>0.5290242171951729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5842612568099598</v>
+        <v>0.5843253130197853</v>
       </c>
     </row>
     <row r="11">
@@ -4264,19 +4264,19 @@
         <v>6117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2163</v>
+        <v>2176</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12513</v>
+        <v>12280</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006021071457753283</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002128832318256354</v>
+        <v>0.002142159154465315</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01231744462874481</v>
+        <v>0.01208785040416593</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -4285,19 +4285,19 @@
         <v>19238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11065</v>
+        <v>12108</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29448</v>
+        <v>29307</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01867554137137499</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0107412559269164</v>
+        <v>0.01175420920874888</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02858677815795367</v>
+        <v>0.02845014527332896</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -4306,19 +4306,19 @@
         <v>25355</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16484</v>
+        <v>16599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36755</v>
+        <v>36901</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01239235330358436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008056983595266133</v>
+        <v>0.008112810997977239</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01796420660832476</v>
+        <v>0.01803579954028845</v>
       </c>
     </row>
     <row r="13">
@@ -4335,19 +4335,19 @@
         <v>87531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70494</v>
+        <v>70133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106407</v>
+        <v>107651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08616322350809039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06939273766291236</v>
+        <v>0.06903759720336117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1047446837602272</v>
+        <v>0.1059694048687258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -4356,19 +4356,19 @@
         <v>65551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50225</v>
+        <v>49479</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82649</v>
+        <v>82691</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06363493969963677</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0487561840341983</v>
+        <v>0.04803203287343751</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08023265429417556</v>
+        <v>0.08027338000309207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -4377,19 +4377,19 @@
         <v>153082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129179</v>
+        <v>130068</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180777</v>
+        <v>179165</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07482066655973288</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06313745929832359</v>
+        <v>0.06357198491096082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08835657527272274</v>
+        <v>0.08756887140183915</v>
       </c>
     </row>
     <row r="14">
@@ -4406,19 +4406,19 @@
         <v>87728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70488</v>
+        <v>71191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>107254</v>
+        <v>107886</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08635740721747771</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06938646928584166</v>
+        <v>0.07007895144074619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1055781786757497</v>
+        <v>0.1062001547754868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -4427,19 +4427,19 @@
         <v>112745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93053</v>
+        <v>91365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135261</v>
+        <v>136388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1094491786862205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09033256228142075</v>
+        <v>0.08869351401593191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1313070053042925</v>
+        <v>0.1324009938781963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>185</v>
@@ -4448,19 +4448,19 @@
         <v>200474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>175094</v>
+        <v>175422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231133</v>
+        <v>228968</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09798366934865646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08557915715336249</v>
+        <v>0.08573951365271386</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1129689676177301</v>
+        <v>0.1119107049914645</v>
       </c>
     </row>
     <row r="15">
@@ -4477,19 +4477,19 @@
         <v>319175</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>290293</v>
+        <v>287857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>351311</v>
+        <v>350565</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3141878968647315</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2857569407882103</v>
+        <v>0.283358933164672</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3458222603761355</v>
+        <v>0.3450878992461316</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>175</v>
@@ -4498,19 +4498,19 @@
         <v>187658</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>164496</v>
+        <v>162983</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>216393</v>
+        <v>214920</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1821713935655824</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1596869287653189</v>
+        <v>0.1582176674994931</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2100663467243518</v>
+        <v>0.2086371784151697</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>468</v>
@@ -4519,19 +4519,19 @@
         <v>506833</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>469181</v>
+        <v>466192</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>549990</v>
+        <v>546123</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2477201304105584</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2293175550252304</v>
+        <v>0.2278563693464838</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.268813697262288</v>
+        <v>0.2669234878215632</v>
       </c>
     </row>
     <row r="16">
@@ -4548,19 +4548,19 @@
         <v>14740</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8162</v>
+        <v>8340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24363</v>
+        <v>24849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01450924692945385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008034937744571959</v>
+        <v>0.00820965881372707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02398233974830833</v>
+        <v>0.02446038644404391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4569,19 +4569,19 @@
         <v>17887</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10853</v>
+        <v>10640</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28252</v>
+        <v>27947</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01736430063306421</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01053585175258732</v>
+        <v>0.01032910921049158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02742570838075045</v>
+        <v>0.02713031829380505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -4590,19 +4590,19 @@
         <v>32627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22798</v>
+        <v>22964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46327</v>
+        <v>46692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01594671147398643</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01114285687161299</v>
+        <v>0.01122408836933704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02264280339433194</v>
+        <v>0.02282118015498371</v>
       </c>
     </row>
     <row r="17">
@@ -4666,19 +4666,19 @@
         <v>500583</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>466098</v>
+        <v>467102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>531657</v>
+        <v>535152</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4927611540224933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4588151767195185</v>
+        <v>0.4598035247336845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5233500569877629</v>
+        <v>0.5267899945629653</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>570</v>
@@ -4687,19 +4687,19 @@
         <v>627036</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>593077</v>
+        <v>594152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>660962</v>
+        <v>658320</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6087046460441211</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.575737729404723</v>
+        <v>0.5767818761273019</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6416381158275259</v>
+        <v>0.6390739783418136</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1029</v>
@@ -4708,19 +4708,19 @@
         <v>1127619</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1077971</v>
+        <v>1080887</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1174106</v>
+        <v>1174134</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5511364689034814</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.526870267020574</v>
+        <v>0.5282956950441218</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5738574023555706</v>
+        <v>0.5738712457455859</v>
       </c>
     </row>
     <row r="19">
@@ -4812,19 +4812,19 @@
         <v>7946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3827</v>
+        <v>3784</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15986</v>
+        <v>15102</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01051353571107097</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005063518627713185</v>
+        <v>0.005006595045689082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02115175557069662</v>
+        <v>0.01998235922630919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4833,19 +4833,19 @@
         <v>5137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12146</v>
+        <v>11260</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006618559860812676</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002544790326572422</v>
+        <v>0.002548089845637235</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01564781744629077</v>
+        <v>0.01450657773692464</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -4854,19 +4854,19 @@
         <v>13083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7230</v>
+        <v>7767</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22285</v>
+        <v>21771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.008540101301855594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004719351809851275</v>
+        <v>0.005069721819356506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0145470180050722</v>
+        <v>0.01421094500212986</v>
       </c>
     </row>
     <row r="21">
@@ -4883,19 +4883,19 @@
         <v>40490</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29353</v>
+        <v>29448</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54046</v>
+        <v>55581</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05357353492500369</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0388378991161967</v>
+        <v>0.03896407748515258</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07151049412817256</v>
+        <v>0.07354207730375192</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -4904,19 +4904,19 @@
         <v>59574</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44937</v>
+        <v>46261</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>75422</v>
+        <v>77640</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0767522927167428</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05789521197095355</v>
+        <v>0.05960101464285887</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09716980464098811</v>
+        <v>0.1000279106946693</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>91</v>
@@ -4925,19 +4925,19 @@
         <v>100064</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>82939</v>
+        <v>79970</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>121923</v>
+        <v>122373</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06531731972563437</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05413923916863877</v>
+        <v>0.05220112853270596</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07958601214064619</v>
+        <v>0.07987980087381347</v>
       </c>
     </row>
     <row r="22">
@@ -4954,19 +4954,19 @@
         <v>80974</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65189</v>
+        <v>64588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100892</v>
+        <v>101179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1071402888186964</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08625447003361339</v>
+        <v>0.08545878503282506</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1334946019790365</v>
+        <v>0.1338744261640271</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -4975,19 +4975,19 @@
         <v>83047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65919</v>
+        <v>64864</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103582</v>
+        <v>102930</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1069940983585719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08492648577620335</v>
+        <v>0.08356702489170802</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1334504164047661</v>
+        <v>0.1326094208860946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -4996,19 +4996,19 @@
         <v>164021</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>139434</v>
+        <v>139023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191050</v>
+        <v>189586</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1070662197370384</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09101652506636307</v>
+        <v>0.09074817367953558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1247093458936397</v>
+        <v>0.1237538447171903</v>
       </c>
     </row>
     <row r="23">
@@ -5025,19 +5025,19 @@
         <v>229486</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201896</v>
+        <v>205768</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252650</v>
+        <v>257312</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3036424621454499</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2671374256956515</v>
+        <v>0.2722609631251092</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3342923542110081</v>
+        <v>0.34046061297084</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>119</v>
@@ -5046,19 +5046,19 @@
         <v>124014</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>104012</v>
+        <v>104289</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>146560</v>
+        <v>147039</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1597737859199957</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1340037235426444</v>
+        <v>0.1343604670546568</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1888205378186181</v>
+        <v>0.1894382727303887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>334</v>
@@ -5067,19 +5067,19 @@
         <v>353500</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>319274</v>
+        <v>323535</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>386288</v>
+        <v>389127</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2307497390614931</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2084084862862985</v>
+        <v>0.2111900967924029</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2521522784377411</v>
+        <v>0.2540058706592124</v>
       </c>
     </row>
     <row r="24">
@@ -5096,19 +5096,19 @@
         <v>15358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8075</v>
+        <v>8974</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25220</v>
+        <v>25306</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02032147687709473</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01068379277106098</v>
+        <v>0.01187390164232568</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03336980538748756</v>
+        <v>0.03348402414832821</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -5117,19 +5117,19 @@
         <v>13627</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7179</v>
+        <v>6530</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23584</v>
+        <v>23688</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01755599498055973</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009249354575827375</v>
+        <v>0.008413092297924075</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03038430443511387</v>
+        <v>0.03051842946882736</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -5138,19 +5138,19 @@
         <v>28985</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19059</v>
+        <v>18288</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42448</v>
+        <v>41879</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01892031359842576</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01244079659239039</v>
+        <v>0.01193781395687368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02770796918323575</v>
+        <v>0.02733690368060729</v>
       </c>
     </row>
     <row r="25">
@@ -5214,19 +5214,19 @@
         <v>381522</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>352619</v>
+        <v>351053</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>409275</v>
+        <v>409204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5048087015226843</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4665660968162495</v>
+        <v>0.4644931671438903</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5415295775273916</v>
+        <v>0.5414362027520503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>441</v>
@@ -5235,19 +5235,19 @@
         <v>490786</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>459290</v>
+        <v>463022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>516293</v>
+        <v>517252</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6323052681633171</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5917265891708199</v>
+        <v>0.596535224091351</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6651668068538988</v>
+        <v>0.6664014865810919</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>777</v>
@@ -5256,19 +5256,19 @@
         <v>872309</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>832106</v>
+        <v>833482</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>912774</v>
+        <v>916867</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5694063065755528</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5431636095022978</v>
+        <v>0.5440620875858924</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5958200653412334</v>
+        <v>0.5984917211893236</v>
       </c>
     </row>
     <row r="27">
@@ -5360,19 +5360,19 @@
         <v>3585</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8667</v>
+        <v>9070</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003782418967041298</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0009485470494915566</v>
+        <v>0.0009446368971623651</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009144703571595829</v>
+        <v>0.009570108803795361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -5381,19 +5381,19 @@
         <v>12267</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6841</v>
+        <v>6634</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21180</v>
+        <v>20829</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01166135664390776</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006503697971544875</v>
+        <v>0.006306921528673241</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02013509756952961</v>
+        <v>0.0198016373812875</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -5402,19 +5402,19 @@
         <v>15851</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9516</v>
+        <v>9440</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25356</v>
+        <v>25561</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00792709546404549</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004758939854904043</v>
+        <v>0.004720700069082399</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01268016204317519</v>
+        <v>0.01278274394723131</v>
       </c>
     </row>
     <row r="29">
@@ -5431,19 +5431,19 @@
         <v>52816</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39541</v>
+        <v>39766</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>68686</v>
+        <v>68457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05572870544380701</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0417210873482596</v>
+        <v>0.04195904685337833</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07247395782088732</v>
+        <v>0.0722315209548436</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>56</v>
@@ -5452,19 +5452,19 @@
         <v>59415</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45955</v>
+        <v>45480</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>75220</v>
+        <v>75480</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05648338062252535</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04368753603425177</v>
+        <v>0.04323625520999967</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07150906457250729</v>
+        <v>0.07175539154146729</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>108</v>
@@ -5473,19 +5473,19 @@
         <v>112231</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>95611</v>
+        <v>93619</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>134338</v>
+        <v>136604</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05612569861780942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0478138685452164</v>
+        <v>0.0468181208245225</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06718129107051164</v>
+        <v>0.06831430954368396</v>
       </c>
     </row>
     <row r="30">
@@ -5502,19 +5502,19 @@
         <v>93932</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>74963</v>
+        <v>75881</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>113850</v>
+        <v>113520</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09911118157377961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07909627617757134</v>
+        <v>0.08006555191932775</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1201280538977521</v>
+        <v>0.1197798853684812</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>126</v>
@@ -5523,19 +5523,19 @@
         <v>130166</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>109177</v>
+        <v>109282</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152636</v>
+        <v>152624</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1237435176471971</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1037901778119058</v>
+        <v>0.1038900080732031</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1451046979154176</v>
+        <v>0.1450938618581737</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>217</v>
@@ -5544,19 +5544,19 @@
         <v>224097</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>195578</v>
+        <v>196351</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>253667</v>
+        <v>253584</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1120689010756815</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0978065975760042</v>
+        <v>0.09819333937410311</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1268564506038076</v>
+        <v>0.1268147463254995</v>
       </c>
     </row>
     <row r="31">
@@ -5573,19 +5573,19 @@
         <v>308695</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>278767</v>
+        <v>279480</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>341156</v>
+        <v>339808</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3257168535511487</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2941392437675923</v>
+        <v>0.2948911338305644</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3599685968998023</v>
+        <v>0.3585462898068166</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>182</v>
@@ -5594,19 +5594,19 @@
         <v>185868</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>162097</v>
+        <v>160744</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>211256</v>
+        <v>209351</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1766969909232953</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1540991463804766</v>
+        <v>0.1528131238172615</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2008323165524525</v>
+        <v>0.1990215665324321</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>484</v>
@@ -5615,19 +5615,19 @@
         <v>494562</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>455070</v>
+        <v>454837</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>533854</v>
+        <v>533628</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.247325686169038</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2275760400861482</v>
+        <v>0.227459355785637</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2669752467918644</v>
+        <v>0.2668622820271014</v>
       </c>
     </row>
     <row r="32">
@@ -5644,19 +5644,19 @@
         <v>4970</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>945</v>
+        <v>1840</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13722</v>
+        <v>13476</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005243940325273135</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0009968056914897198</v>
+        <v>0.001941206990105803</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01447912649571255</v>
+        <v>0.01421946965932651</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -5665,19 +5665,19 @@
         <v>10663</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4994</v>
+        <v>4978</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19812</v>
+        <v>19324</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01013666598396618</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004747126882538588</v>
+        <v>0.004732283302919886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01883423616316271</v>
+        <v>0.01837050433390977</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -5686,19 +5686,19 @@
         <v>15633</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8535</v>
+        <v>7956</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>26974</v>
+        <v>26317</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007817734645720088</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004268400342436374</v>
+        <v>0.003978920729204073</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0134895340127914</v>
+        <v>0.01316082137364291</v>
       </c>
     </row>
     <row r="33">
@@ -5762,19 +5762,19 @@
         <v>483742</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>450684</v>
+        <v>453039</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>512509</v>
+        <v>514574</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5104169001389502</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4755360880815465</v>
+        <v>0.4780209854257405</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5407700148769232</v>
+        <v>0.54294921503472</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>617</v>
@@ -5783,19 +5783,19 @@
         <v>653523</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>620994</v>
+        <v>616324</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>688104</v>
+        <v>683363</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6212780881791082</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5903538160715316</v>
+        <v>0.5859144129381709</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6541526798175732</v>
+        <v>0.6496454485939945</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1074</v>
@@ -5804,19 +5804,19 @@
         <v>1137265</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1092300</v>
+        <v>1092445</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1181440</v>
+        <v>1182224</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5687348840277056</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5462484259244647</v>
+        <v>0.5463209751904697</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.590826315329401</v>
+        <v>0.5912182477086905</v>
       </c>
     </row>
     <row r="35">
@@ -5908,19 +5908,19 @@
         <v>21583</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13006</v>
+        <v>14025</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31447</v>
+        <v>32201</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006305603094248203</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003799679677809604</v>
+        <v>0.004097587480789225</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009187342451267571</v>
+        <v>0.009407687007165577</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>39</v>
@@ -5929,19 +5929,19 @@
         <v>40621</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>28748</v>
+        <v>29327</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>53720</v>
+        <v>55174</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01142568620531892</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.008085999625262966</v>
+        <v>0.008248894657702011</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01510994578725722</v>
+        <v>0.01551890845052038</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>61</v>
@@ -5950,19 +5950,19 @@
         <v>62204</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>48274</v>
+        <v>47783</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>80340</v>
+        <v>81251</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.008914216494565559</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006917872592108962</v>
+        <v>0.006847501364683107</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01151317569980024</v>
+        <v>0.01164365297419285</v>
       </c>
     </row>
     <row r="37">
@@ -5979,19 +5979,19 @@
         <v>224840</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>193848</v>
+        <v>195301</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>257794</v>
+        <v>255460</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06568790171289833</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05663343700987065</v>
+        <v>0.05705787479166652</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07531537659011435</v>
+        <v>0.07463368083227391</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>217</v>
@@ -6000,19 +6000,19 @@
         <v>240281</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>211707</v>
+        <v>211257</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>276054</v>
+        <v>276155</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06758468371127965</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05954752551022802</v>
+        <v>0.05942114896759394</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07764685074995278</v>
+        <v>0.07767516367233157</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>429</v>
@@ -6021,19 +6021,19 @@
         <v>465121</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>424163</v>
+        <v>425863</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>510800</v>
+        <v>513211</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06665428659984668</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06078482162697005</v>
+        <v>0.06102834842500891</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07320027817208682</v>
+        <v>0.07354586706550736</v>
       </c>
     </row>
     <row r="38">
@@ -6050,19 +6050,19 @@
         <v>322682</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>286984</v>
+        <v>290409</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>359498</v>
+        <v>362970</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09427261245193112</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08384342948936371</v>
+        <v>0.08484398513593297</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1050286059900074</v>
+        <v>0.1060429782593005</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>362</v>
@@ -6071,19 +6071,19 @@
         <v>390594</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>354783</v>
+        <v>354861</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>431818</v>
+        <v>431331</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.109863830355048</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09979127756989094</v>
+        <v>0.09981323808534369</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1214592721546923</v>
+        <v>0.1213221051047787</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>673</v>
@@ -6092,19 +6092,19 @@
         <v>713275</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>658934</v>
+        <v>659753</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>761056</v>
+        <v>763637</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1022161280291291</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09442871159330662</v>
+        <v>0.09454613701828506</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1090633055545968</v>
+        <v>0.1094332131428209</v>
       </c>
     </row>
     <row r="39">
@@ -6121,19 +6121,19 @@
         <v>1069778</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1010469</v>
+        <v>1015342</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1127730</v>
+        <v>1125522</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3125393593688999</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2952120265807532</v>
+        <v>0.2966359174150779</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3294702752596514</v>
+        <v>0.3288254005138628</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>614</v>
@@ -6142,19 +6142,19 @@
         <v>646171</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>601019</v>
+        <v>600562</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>691426</v>
+        <v>692760</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1817509930418379</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1690510612334143</v>
+        <v>0.1689224535841872</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1944800318662801</v>
+        <v>0.1948552822278824</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1631</v>
@@ -6163,19 +6163,19 @@
         <v>1715948</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1647224</v>
+        <v>1645118</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1791964</v>
+        <v>1793361</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2459044478635197</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2360559193212924</v>
+        <v>0.2357541338193031</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2567979528427774</v>
+        <v>0.2569981078737054</v>
       </c>
     </row>
     <row r="40">
@@ -6192,19 +6192,19 @@
         <v>48470</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35483</v>
+        <v>35689</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65183</v>
+        <v>66465</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01416067558202753</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01036648551355445</v>
+        <v>0.01042663140240517</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01904353832606132</v>
+        <v>0.01941787067263301</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>51</v>
@@ -6213,19 +6213,19 @@
         <v>56493</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>42273</v>
+        <v>42824</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>73818</v>
+        <v>74377</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01588993706194837</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01189018752931532</v>
+        <v>0.01204520182078775</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0207631576276399</v>
+        <v>0.02092038255496274</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>95</v>
@@ -6234,19 +6234,19 @@
         <v>104963</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>84846</v>
+        <v>83936</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>126405</v>
+        <v>125950</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01504171102057743</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01215886280011537</v>
+        <v>0.01202852475009732</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01811455407146922</v>
+        <v>0.01804927676826604</v>
       </c>
     </row>
     <row r="41">
@@ -6310,19 +6310,19 @@
         <v>1735504</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1674047</v>
+        <v>1669299</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1792630</v>
+        <v>1796448</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5070338477899949</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4890789819917452</v>
+        <v>0.4876917643480453</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.523723385240772</v>
+        <v>0.5248388786673133</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2012</v>
@@ -6331,19 +6331,19 @@
         <v>2181094</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2116946</v>
+        <v>2118484</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2237017</v>
+        <v>2237186</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6134848696245672</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5954416604736854</v>
+        <v>0.5958743376666163</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6292146880077876</v>
+        <v>0.6292621329577763</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3611</v>
@@ -6352,19 +6352,19 @@
         <v>3916598</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3829585</v>
+        <v>3834487</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4000779</v>
+        <v>4007987</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5612692099923615</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5487997922619132</v>
+        <v>0.5495021777588114</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5733327078690873</v>
+        <v>0.5743656544185473</v>
       </c>
     </row>
     <row r="43">
@@ -6743,19 +6743,19 @@
         <v>12724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6203</v>
+        <v>7066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23615</v>
+        <v>22000</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01885598250998058</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009192950639828203</v>
+        <v>0.01047136738974686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03499622683401966</v>
+        <v>0.03260258699133505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -6764,19 +6764,19 @@
         <v>29989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20723</v>
+        <v>20418</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41695</v>
+        <v>41644</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04492970131344117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0310469550629944</v>
+        <v>0.03059017258144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06246686621329896</v>
+        <v>0.06239085205503982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -6785,19 +6785,19 @@
         <v>42713</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30374</v>
+        <v>30990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57499</v>
+        <v>58669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03182165021594955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02262858848367598</v>
+        <v>0.02308760254216442</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04283723774006747</v>
+        <v>0.04370868419854578</v>
       </c>
     </row>
     <row r="6">
@@ -6814,19 +6814,19 @@
         <v>92149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>74696</v>
+        <v>73836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110635</v>
+        <v>111701</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1365578836793057</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1106936909859285</v>
+        <v>0.1094190458449214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1639516099050925</v>
+        <v>0.1655321644746965</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -6835,19 +6835,19 @@
         <v>77872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63555</v>
+        <v>64991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97011</v>
+        <v>97465</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1166667250710094</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09521794620687067</v>
+        <v>0.09736960616851527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1453419393997327</v>
+        <v>0.1460221499825457</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>171</v>
@@ -6856,19 +6856,19 @@
         <v>170021</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>148370</v>
+        <v>146414</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>193700</v>
+        <v>196186</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1266666152052565</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1105366681833612</v>
+        <v>0.1090797217161592</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1443076595615768</v>
+        <v>0.1461598921572348</v>
       </c>
     </row>
     <row r="7">
@@ -6885,19 +6885,19 @@
         <v>144069</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123490</v>
+        <v>124060</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166636</v>
+        <v>167409</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.21349939932972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1830026334920807</v>
+        <v>0.1838467279663991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2469411870955504</v>
+        <v>0.2480862009036461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -6906,19 +6906,19 @@
         <v>90365</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74431</v>
+        <v>75128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109312</v>
+        <v>109091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1353845351625075</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1115125907681064</v>
+        <v>0.1125560539312771</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1637702555640251</v>
+        <v>0.1634390306702202</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>232</v>
@@ -6927,19 +6927,19 @@
         <v>234435</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>205125</v>
+        <v>206927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>263104</v>
+        <v>260748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1746552521130002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1528192029525652</v>
+        <v>0.1541622093821496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1960143071171041</v>
+        <v>0.1942590254757706</v>
       </c>
     </row>
     <row r="8">
@@ -6956,19 +6956,19 @@
         <v>13193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6959</v>
+        <v>6815</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23169</v>
+        <v>23541</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01955125777936989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01031315164832627</v>
+        <v>0.01009932266280477</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03433439609807924</v>
+        <v>0.03488593356934212</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -6977,19 +6977,19 @@
         <v>18064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11797</v>
+        <v>11077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27241</v>
+        <v>27280</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02706349246849538</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01767420737946086</v>
+        <v>0.01659493614544631</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04081235710420765</v>
+        <v>0.04087024399469299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -6998,19 +6998,19 @@
         <v>31257</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21588</v>
+        <v>22159</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43890</v>
+        <v>44734</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02328686371432102</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01608334981932395</v>
+        <v>0.01650841990421764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03269834401957415</v>
+        <v>0.03332702641729349</v>
       </c>
     </row>
     <row r="9">
@@ -7074,19 +7074,19 @@
         <v>412664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>387588</v>
+        <v>387729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>438100</v>
+        <v>438060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6115354767016238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5743743857648963</v>
+        <v>0.5745837089500563</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6492295201822831</v>
+        <v>0.6491695038244817</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>433</v>
@@ -7095,19 +7095,19 @@
         <v>451180</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>425283</v>
+        <v>427081</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>472600</v>
+        <v>474920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6759555459845465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6371567745209562</v>
+        <v>0.6398507850467741</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7080464823389259</v>
+        <v>0.7115220352062424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>838</v>
@@ -7116,19 +7116,19 @@
         <v>863844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>829896</v>
+        <v>827479</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>898769</v>
+        <v>896345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6435696187514728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6182780028262834</v>
+        <v>0.6164773057127051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.669588797018657</v>
+        <v>0.6677826067083034</v>
       </c>
     </row>
     <row r="11">
@@ -7267,19 +7267,19 @@
         <v>24854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15329</v>
+        <v>15746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36498</v>
+        <v>35654</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02432878916988999</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01500462845636772</v>
+        <v>0.01541307779522949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03572611705677072</v>
+        <v>0.03490022392169818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -7288,19 +7288,19 @@
         <v>40397</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30358</v>
+        <v>30488</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55021</v>
+        <v>55116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03880422834993329</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02916048663541936</v>
+        <v>0.02928544530409365</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05285111962763765</v>
+        <v>0.05294276166222828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -7309,19 +7309,19 @@
         <v>65251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49767</v>
+        <v>52015</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82878</v>
+        <v>82012</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03163477636131189</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02412760084628104</v>
+        <v>0.02521743197344459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04018050971128217</v>
+        <v>0.03976069699860084</v>
       </c>
     </row>
     <row r="14">
@@ -7338,19 +7338,19 @@
         <v>117096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96560</v>
+        <v>97604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139299</v>
+        <v>138676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1146208769078084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09451897242803591</v>
+        <v>0.09554036427100254</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1363542730965865</v>
+        <v>0.135744627727342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -7359,19 +7359,19 @@
         <v>148933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125570</v>
+        <v>129134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172255</v>
+        <v>174234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1430605210221077</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1206189291496648</v>
+        <v>0.1240421945589368</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1654623956925388</v>
+        <v>0.1673636979600434</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>258</v>
@@ -7380,19 +7380,19 @@
         <v>266029</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>236659</v>
+        <v>235710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296664</v>
+        <v>295127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1289748231365436</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1147357815620996</v>
+        <v>0.1142757159461446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1438269797187625</v>
+        <v>0.1430818525442415</v>
       </c>
     </row>
     <row r="15">
@@ -7409,19 +7409,19 @@
         <v>341577</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>312638</v>
+        <v>311453</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>373504</v>
+        <v>372715</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3343568390166757</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3060288827698353</v>
+        <v>0.3048691302464042</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3656091381481807</v>
+        <v>0.3648367883529131</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>228</v>
@@ -7430,19 +7430,19 @@
         <v>226625</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>201901</v>
+        <v>200098</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>254818</v>
+        <v>252607</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.217689227219037</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1939394377252932</v>
+        <v>0.1922075256052917</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2447700406595347</v>
+        <v>0.2426463391600998</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>542</v>
@@ -7451,19 +7451,19 @@
         <v>568202</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>526211</v>
+        <v>530639</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>611466</v>
+        <v>611545</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2754728171334252</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2551145835823877</v>
+        <v>0.257261621829882</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2964475700509657</v>
+        <v>0.2964860413939497</v>
       </c>
     </row>
     <row r="16">
@@ -7480,19 +7480,19 @@
         <v>16118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9217</v>
+        <v>9311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25421</v>
+        <v>26734</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01577731729161186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009021756366024477</v>
+        <v>0.009113923551468766</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02488319754076383</v>
+        <v>0.0261691608000183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -7501,19 +7501,19 @@
         <v>11414</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5959</v>
+        <v>5254</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21041</v>
+        <v>19977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01096423557136602</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005724450663804599</v>
+        <v>0.005046389697896148</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02021167261550349</v>
+        <v>0.01918887601143983</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -7522,19 +7522,19 @@
         <v>27532</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18338</v>
+        <v>18351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39707</v>
+        <v>39983</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01334807746254591</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008890374451116543</v>
+        <v>0.00889676273766849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01925054014416613</v>
+        <v>0.01938444330032079</v>
       </c>
     </row>
     <row r="17">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6118</v>
+        <v>5374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001049247987782453</v>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.005988868572752989</v>
+        <v>0.005260303633701184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5387</v>
+        <v>5352</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0005196756367112455</v>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.002611890400859876</v>
+        <v>0.002594699248265781</v>
       </c>
     </row>
     <row r="18">
@@ -7614,19 +7614,19 @@
         <v>520878</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>488878</v>
+        <v>487046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>554696</v>
+        <v>554007</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5098669296262316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4785434109986487</v>
+        <v>0.4767509180316442</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5429709926862306</v>
+        <v>0.5422962410863168</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>550</v>
@@ -7635,19 +7635,19 @@
         <v>613680</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>583156</v>
+        <v>582897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>647401</v>
+        <v>646677</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5894817878375559</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.560161563029804</v>
+        <v>0.5599127980797381</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6218729393513397</v>
+        <v>0.6211774892456783</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1037</v>
@@ -7656,19 +7656,19 @@
         <v>1134557</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1087601</v>
+        <v>1084345</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1180880</v>
+        <v>1177600</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5500498302694621</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5272846517038623</v>
+        <v>0.5257062741553221</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5725077868172566</v>
+        <v>0.570917489434988</v>
       </c>
     </row>
     <row r="19">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5225</v>
+        <v>4756</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001201077174580499</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006664556356163591</v>
+        <v>0.006065320103862785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5337</v>
+        <v>5392</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0006109265248988907</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003462019212456806</v>
+        <v>0.003498101622881226</v>
       </c>
     </row>
     <row r="21">
@@ -7823,19 +7823,19 @@
         <v>29764</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19997</v>
+        <v>19719</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41932</v>
+        <v>42644</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03929720071379755</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0264019611314873</v>
+        <v>0.02603509674654428</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05536328110030781</v>
+        <v>0.05630284873138661</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -7844,19 +7844,19 @@
         <v>20289</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13507</v>
+        <v>12711</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31734</v>
+        <v>31740</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02587614433946973</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01722717070876259</v>
+        <v>0.01621215850700426</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04047385521133132</v>
+        <v>0.04048088576374094</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -7865,19 +7865,19 @@
         <v>50052</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36691</v>
+        <v>37444</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>65800</v>
+        <v>66734</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03247059580882634</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02380246372004323</v>
+        <v>0.02429130415082954</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0426867982005454</v>
+        <v>0.04329265056482229</v>
       </c>
     </row>
     <row r="22">
@@ -7894,19 +7894,19 @@
         <v>116151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96912</v>
+        <v>97032</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140130</v>
+        <v>137456</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1533538994492532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1279529633233999</v>
+        <v>0.1281113839953447</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1850131528693904</v>
+        <v>0.1814825618356861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -7915,19 +7915,19 @@
         <v>151693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131050</v>
+        <v>131913</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>173366</v>
+        <v>175909</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.193468605986914</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1671405888595299</v>
+        <v>0.1682415486788238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2211112986933556</v>
+        <v>0.2243540255278198</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>254</v>
@@ -7936,19 +7936,19 @@
         <v>267843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>237020</v>
+        <v>238595</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>300161</v>
+        <v>299418</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1737581988407153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1537620639415598</v>
+        <v>0.1547840864731795</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1947239892022301</v>
+        <v>0.1942418375014559</v>
       </c>
     </row>
     <row r="23">
@@ -7965,19 +7965,19 @@
         <v>186072</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162699</v>
+        <v>162755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>210017</v>
+        <v>209992</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2456705183471453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2148111048784192</v>
+        <v>0.2148851004695872</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2772856661023326</v>
+        <v>0.2772526400299286</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>154</v>
@@ -7986,19 +7986,19 @@
         <v>153257</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>132673</v>
+        <v>133125</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>175272</v>
+        <v>177278</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1954633100029602</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1692105453067809</v>
+        <v>0.1697870041807311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2235422375169565</v>
+        <v>0.2261005702030315</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>327</v>
@@ -8007,19 +8007,19 @@
         <v>339328</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>305050</v>
+        <v>306003</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>372573</v>
+        <v>372415</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2201326795073549</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1978954071149612</v>
+        <v>0.1985136194598303</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2416998749009902</v>
+        <v>0.2415973896704209</v>
       </c>
     </row>
     <row r="24">
@@ -8036,19 +8036,19 @@
         <v>8612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3478</v>
+        <v>4011</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16050</v>
+        <v>16920</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01137050652185359</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004591553262698709</v>
+        <v>0.00529605935194421</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02119081670430145</v>
+        <v>0.02233905900938469</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -8057,19 +8057,19 @@
         <v>7744</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3066</v>
+        <v>3102</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16216</v>
+        <v>15721</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.009876825441263152</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003910105376904295</v>
+        <v>0.003956817809208913</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02068160172894755</v>
+        <v>0.02005036225476587</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -8078,19 +8078,19 @@
         <v>16356</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9154</v>
+        <v>9147</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25582</v>
+        <v>25997</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01061074735634364</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005938761372236839</v>
+        <v>0.005933849644278321</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01659597541141516</v>
+        <v>0.01686535348992424</v>
       </c>
     </row>
     <row r="25">
@@ -8154,19 +8154,19 @@
         <v>416805</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>388216</v>
+        <v>387337</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>443568</v>
+        <v>440480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5503078749679504</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5125615241027014</v>
+        <v>0.5114010123128558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5856420790137596</v>
+        <v>0.5815652578483064</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>402</v>
@@ -8175,19 +8175,19 @@
         <v>450144</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>424460</v>
+        <v>419920</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>481337</v>
+        <v>476156</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5741140370548123</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.541356500002373</v>
+        <v>0.5355660935319849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6138972434760664</v>
+        <v>0.6072891904026047</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>785</v>
@@ -8196,19 +8196,19 @@
         <v>866949</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>829137</v>
+        <v>828288</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>905900</v>
+        <v>906593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5624168519618609</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.537886978974899</v>
+        <v>0.5373361319342383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5876850879375525</v>
+        <v>0.5881351016370292</v>
       </c>
     </row>
     <row r="27">
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6336</v>
+        <v>6760</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002000201630658249</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006114717730653403</v>
+        <v>0.006523739760736772</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7843</v>
+        <v>7396</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.001052047082608296</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.00398116955309864</v>
+        <v>0.003754289585606956</v>
       </c>
     </row>
     <row r="29">
@@ -8363,19 +8363,19 @@
         <v>39697</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29609</v>
+        <v>28648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54862</v>
+        <v>52787</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04250867509387869</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03170626828308142</v>
+        <v>0.03067719520743277</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0587476294446148</v>
+        <v>0.05652575545870832</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -8384,19 +8384,19 @@
         <v>44140</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32259</v>
+        <v>31707</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>59079</v>
+        <v>57441</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04259902072340946</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03113281132374389</v>
+        <v>0.030600213557802</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05701590282954966</v>
+        <v>0.05543518999578554</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>80</v>
@@ -8405,19 +8405,19 @@
         <v>83837</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>68580</v>
+        <v>65799</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>106508</v>
+        <v>101736</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04255619423120834</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03481163991551824</v>
+        <v>0.03339982244283927</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05406448636003747</v>
+        <v>0.05164213036360073</v>
       </c>
     </row>
     <row r="30">
@@ -8434,19 +8434,19 @@
         <v>138363</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>116813</v>
+        <v>117549</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>161938</v>
+        <v>159635</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1481633710494901</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1250872174723461</v>
+        <v>0.1258753826389222</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1734087464731652</v>
+        <v>0.1709428063255503</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>141</v>
@@ -8455,19 +8455,19 @@
         <v>142809</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>120996</v>
+        <v>122704</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>167606</v>
+        <v>169762</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1378233516148883</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1167715214082295</v>
+        <v>0.1184201217416497</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1617547223549566</v>
+        <v>0.1638353268637926</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>277</v>
@@ -8476,19 +8476,19 @@
         <v>281172</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>252405</v>
+        <v>253059</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>315301</v>
+        <v>314769</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1427248256980867</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1281226240393468</v>
+        <v>0.1284548400328541</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.160049099570438</v>
+        <v>0.159778886124207</v>
       </c>
     </row>
     <row r="31">
@@ -8505,19 +8505,19 @@
         <v>270096</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>241296</v>
+        <v>243337</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>298873</v>
+        <v>298628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.289228113725779</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2583884395805682</v>
+        <v>0.2605741016426074</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.320043226393102</v>
+        <v>0.3197808883893474</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>185</v>
@@ -8526,19 +8526,19 @@
         <v>188647</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>167033</v>
+        <v>164030</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>214634</v>
+        <v>213271</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1820611817337885</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1612018159293935</v>
+        <v>0.1583033281947425</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2071401234069303</v>
+        <v>0.2058255242064752</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>453</v>
@@ -8547,19 +8547,19 @@
         <v>458743</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>422081</v>
+        <v>423166</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>498978</v>
+        <v>496167</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2328614672706654</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2142516780414946</v>
+        <v>0.2148020758162291</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.25328476602765</v>
+        <v>0.2518581047879022</v>
       </c>
     </row>
     <row r="32">
@@ -8576,19 +8576,19 @@
         <v>9305</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4404</v>
+        <v>4277</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16767</v>
+        <v>17231</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009963834078387522</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004716269516118024</v>
+        <v>0.004580017531178038</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01795422257785126</v>
+        <v>0.01845190803324177</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -8597,19 +8597,19 @@
         <v>12533</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7051</v>
+        <v>6848</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20685</v>
+        <v>20871</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01209547643318431</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00680490351248036</v>
+        <v>0.006608775760041848</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01996294177473596</v>
+        <v>0.02014208459819808</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -8618,19 +8618,19 @@
         <v>21838</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13439</v>
+        <v>13862</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31840</v>
+        <v>32005</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01108501510641729</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006821699647915421</v>
+        <v>0.007036627911066805</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01616241903517862</v>
+        <v>0.01624576629171308</v>
       </c>
     </row>
     <row r="33">
@@ -8694,19 +8694,19 @@
         <v>476391</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>446282</v>
+        <v>448341</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>509527</v>
+        <v>508547</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5101360060524647</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4778941020396092</v>
+        <v>0.4800990125497274</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5456194810970939</v>
+        <v>0.5445698139012073</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>569</v>
@@ -8715,19 +8715,19 @@
         <v>645974</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>615548</v>
+        <v>614341</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>679245</v>
+        <v>679240</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6234207678640712</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5940577667943617</v>
+        <v>0.5928927351963519</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6555306574847536</v>
+        <v>0.6555260204005646</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1046</v>
@@ -8736,19 +8736,19 @@
         <v>1122364</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1074914</v>
+        <v>1078668</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1164055</v>
+        <v>1169588</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.569720450611014</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5456345518237338</v>
+        <v>0.547539967796515</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5908829059236541</v>
+        <v>0.5936915476015773</v>
       </c>
     </row>
     <row r="35">
@@ -8853,19 +8853,19 @@
         <v>3014</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8987</v>
+        <v>10440</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0008542046844517665</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0002620519557050984</v>
+        <v>0.0002614267101159299</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.002546798114522098</v>
+        <v>0.002958612005618616</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -8874,19 +8874,19 @@
         <v>3014</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8336</v>
+        <v>8199</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0004358164467292956</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0001335111157342017</v>
+        <v>0.0001332855183108801</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.001205195619604575</v>
+        <v>0.001185483498285418</v>
       </c>
     </row>
     <row r="37">
@@ -8903,19 +8903,19 @@
         <v>107039</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>88605</v>
+        <v>87347</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>130976</v>
+        <v>128945</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03159677293917435</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02615541301503196</v>
+        <v>0.02578383120066364</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03866287463151556</v>
+        <v>0.03806338577762625</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>132</v>
@@ -8924,19 +8924,19 @@
         <v>134815</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>114087</v>
+        <v>115191</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>158526</v>
+        <v>161724</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03820462778879911</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03233049274266774</v>
+        <v>0.03264352399553692</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0449239683028938</v>
+        <v>0.04583021195734055</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>230</v>
@@ -8945,19 +8945,19 @@
         <v>241854</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>211045</v>
+        <v>210633</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>275539</v>
+        <v>272285</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03496810989562606</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03051364991038978</v>
+        <v>0.03045402281066219</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03983839709389229</v>
+        <v>0.03936797483521302</v>
       </c>
     </row>
     <row r="38">
@@ -8974,19 +8974,19 @@
         <v>463759</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>424394</v>
+        <v>423240</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>510055</v>
+        <v>503864</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1368968880642792</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1252767510490008</v>
+        <v>0.124936344062954</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1505631088776006</v>
+        <v>0.1487354774399352</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>523</v>
@@ -8995,19 +8995,19 @@
         <v>521306</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>478783</v>
+        <v>479536</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>560524</v>
+        <v>562390</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1477306113442993</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1356800535072462</v>
+        <v>0.1358935076285339</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1588442524050512</v>
+        <v>0.1593731862034524</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>960</v>
@@ -9016,19 +9016,19 @@
         <v>985065</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>926558</v>
+        <v>928360</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1044658</v>
+        <v>1043433</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1424242691132103</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1339651438364383</v>
+        <v>0.13422567451058</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1510404586183347</v>
+        <v>0.1508633724184983</v>
       </c>
     </row>
     <row r="39">
@@ -9045,19 +9045,19 @@
         <v>941814</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>889949</v>
+        <v>888300</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>989236</v>
+        <v>993139</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2780140946862097</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2627041054722108</v>
+        <v>0.2622171568516413</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.292012490056262</v>
+        <v>0.293164555667119</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>662</v>
@@ -9066,19 +9066,19 @@
         <v>658894</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>611813</v>
+        <v>614480</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>706003</v>
+        <v>708710</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1867210227253632</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1733788797345576</v>
+        <v>0.1741347866254904</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2000710007013542</v>
+        <v>0.2008381566597217</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1554</v>
@@ -9087,19 +9087,19 @@
         <v>1600708</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1532535</v>
+        <v>1540104</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1677888</v>
+        <v>1671604</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2314362393346981</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2215794898593119</v>
+        <v>0.2226738138377814</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2425951118908367</v>
+        <v>0.2416866244376411</v>
       </c>
     </row>
     <row r="40">
@@ -9116,19 +9116,19 @@
         <v>47228</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35419</v>
+        <v>35072</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>63314</v>
+        <v>64688</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01394123436450786</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01045522778026995</v>
+        <v>0.01035281231569483</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01868958768472022</v>
+        <v>0.01909521181324651</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>49</v>
@@ -9137,19 +9137,19 @@
         <v>49756</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37908</v>
+        <v>37354</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>66031</v>
+        <v>64864</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01409998990367535</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01074256990851912</v>
+        <v>0.0105856985288878</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01871214006431032</v>
+        <v>0.0183814059281413</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>93</v>
@@ -9158,19 +9158,19 @@
         <v>96984</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>79319</v>
+        <v>77128</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>120598</v>
+        <v>119497</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01402223166672118</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01146822531545624</v>
+        <v>0.01115151070483965</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01743655403196874</v>
+        <v>0.01727728987432704</v>
       </c>
     </row>
     <row r="41">
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5379</v>
+        <v>6488</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0003164159264982516</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.001587827247778957</v>
+        <v>0.001915157068970443</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -9224,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5376</v>
+        <v>4897</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0001549800700986458</v>
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0007773176251844534</v>
+        <v>0.0007080444073082045</v>
       </c>
     </row>
     <row r="42">
@@ -9250,19 +9250,19 @@
         <v>1826738</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1765420</v>
+        <v>1770963</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1883739</v>
+        <v>1888706</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5392345940193305</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5211341980836123</v>
+        <v>0.5227704514343827</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5560607162545089</v>
+        <v>0.5575270459103445</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1954</v>
@@ -9271,19 +9271,19 @@
         <v>2160978</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2095094</v>
+        <v>2102208</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2220148</v>
+        <v>2216726</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6123895435534112</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.593719182144725</v>
+        <v>0.5957350705080613</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6291575894418718</v>
+        <v>0.6281879368915633</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3706</v>
@@ -9292,19 +9292,19 @@
         <v>3987715</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3907122</v>
+        <v>3912048</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4069585</v>
+        <v>4076141</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5765583534729165</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5649059056217182</v>
+        <v>0.5656181205838532</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5883954526538067</v>
+        <v>0.5893432755721308</v>
       </c>
     </row>
     <row r="43">
@@ -9636,19 +9636,19 @@
         <v>11680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6102</v>
+        <v>6079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22297</v>
+        <v>21530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02216969535899267</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01158236297462841</v>
+        <v>0.01153764366916861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04231942720920545</v>
+        <v>0.04086537101575756</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -9657,19 +9657,19 @@
         <v>5685</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2920</v>
+        <v>2946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9549</v>
+        <v>10193</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01028171303529083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005281458797974773</v>
+        <v>0.005329116944613764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01727214936588291</v>
+        <v>0.01843650343910418</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -9678,19 +9678,19 @@
         <v>17365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10315</v>
+        <v>10851</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27873</v>
+        <v>27090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0160824956820603</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009553337254489959</v>
+        <v>0.01004973897974767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02581438689064836</v>
+        <v>0.02508891287979611</v>
       </c>
     </row>
     <row r="5">
@@ -9707,19 +9707,19 @@
         <v>16247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9522</v>
+        <v>9241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28509</v>
+        <v>27274</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03083681371769313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01807238885063015</v>
+        <v>0.01753927480747948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05411118918399071</v>
+        <v>0.05176673557538038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -9728,19 +9728,19 @@
         <v>20923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13752</v>
+        <v>13978</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31000</v>
+        <v>31423</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03784431075640324</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02487430968654027</v>
+        <v>0.02528237901865022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05607079995122208</v>
+        <v>0.05683437240798359</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -9749,19 +9749,19 @@
         <v>37170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26208</v>
+        <v>26304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50668</v>
+        <v>49801</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03442497801241071</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02427239264912592</v>
+        <v>0.02436108183399859</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04692567434223894</v>
+        <v>0.04612344378130389</v>
       </c>
     </row>
     <row r="6">
@@ -9778,19 +9778,19 @@
         <v>26362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16385</v>
+        <v>16800</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42151</v>
+        <v>42994</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05003550628586491</v>
+        <v>0.05003550628586492</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03109916370640723</v>
+        <v>0.03188613743410112</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08000380567850116</v>
+        <v>0.08160315151158391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -9799,19 +9799,19 @@
         <v>41346</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31099</v>
+        <v>32336</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53704</v>
+        <v>54887</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07478312889789895</v>
+        <v>0.07478312889789894</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05624842698703392</v>
+        <v>0.05848708337227009</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09713562447444861</v>
+        <v>0.09927458845425904</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -9820,19 +9820,19 @@
         <v>67708</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>52661</v>
+        <v>53820</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85311</v>
+        <v>86062</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.06270743969448629</v>
+        <v>0.06270743969448631</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04877183338089833</v>
+        <v>0.04984562661215885</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07901031256718964</v>
+        <v>0.07970556002761547</v>
       </c>
     </row>
     <row r="7">
@@ -9849,19 +9849,19 @@
         <v>124867</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105671</v>
+        <v>104608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147200</v>
+        <v>150752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2369995090686282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2005664143764832</v>
+        <v>0.1985478222087374</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2793896371717232</v>
+        <v>0.2861307392064814</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -9870,19 +9870,19 @@
         <v>87984</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74367</v>
+        <v>74379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105146</v>
+        <v>104895</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1591377597306932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1345092668148574</v>
+        <v>0.1345301689438537</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1901792718943799</v>
+        <v>0.1897245233585467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>222</v>
@@ -9891,19 +9891,19 @@
         <v>212850</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187696</v>
+        <v>187603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241123</v>
+        <v>240976</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1971306732553126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1738340023540756</v>
+        <v>0.1737476584935487</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2233149839009941</v>
+        <v>0.223178695294936</v>
       </c>
     </row>
     <row r="8">
@@ -9920,19 +9920,19 @@
         <v>11641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5110</v>
+        <v>5627</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27842</v>
+        <v>29791</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02209571732113599</v>
+        <v>0.02209571732113598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009698299856369965</v>
+        <v>0.01068031726351657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0528442133488594</v>
+        <v>0.05654474669633915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -9941,19 +9941,19 @@
         <v>10914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6534</v>
+        <v>6383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16532</v>
+        <v>16633</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01974092845104249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01181828797083484</v>
+        <v>0.01154427644969918</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02990154211941638</v>
+        <v>0.03008364547939127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -9962,19 +9962,19 @@
         <v>22556</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14470</v>
+        <v>14984</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37031</v>
+        <v>39590</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02088995593463911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01340119673148869</v>
+        <v>0.01387739038368101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03429618438999979</v>
+        <v>0.03666621763207042</v>
       </c>
     </row>
     <row r="9">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9662</v>
+        <v>10012</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0037400252672694</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0183378866673458</v>
+        <v>0.01900232340288817</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12778</v>
+        <v>9913</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001824958439381325</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01183439824338573</v>
+        <v>0.009181056592460837</v>
       </c>
     </row>
     <row r="10">
@@ -10054,19 +10054,19 @@
         <v>334096</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>309350</v>
+        <v>309720</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>357851</v>
+        <v>358704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6341227329804157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5871542681352011</v>
+        <v>0.5878557388268406</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6792087719052562</v>
+        <v>0.6808293756230256</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>717</v>
@@ -10075,19 +10075,19 @@
         <v>386027</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>367107</v>
+        <v>365970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>403362</v>
+        <v>403983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6982121591286713</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.663992020270527</v>
+        <v>0.6619352049978136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7295670142907238</v>
+        <v>0.7306889774838331</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1146</v>
@@ -10096,19 +10096,19 @@
         <v>720123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>684669</v>
+        <v>689495</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>748284</v>
+        <v>750177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6669394989817097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6341037756611942</v>
+        <v>0.6385732674309532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6930200706456365</v>
+        <v>0.694773310264416</v>
       </c>
     </row>
     <row r="11">
@@ -10200,19 +10200,19 @@
         <v>8461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4383</v>
+        <v>4299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15007</v>
+        <v>15242</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01044654005835603</v>
+        <v>0.01044654005835604</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005411578189206966</v>
+        <v>0.005307803920753434</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01852837659154434</v>
+        <v>0.0188183400531801</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -10221,19 +10221,19 @@
         <v>17075</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11175</v>
+        <v>10997</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26011</v>
+        <v>25722</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02216524923000635</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01450702735315754</v>
+        <v>0.01427551862118498</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0337661146163953</v>
+        <v>0.03338992337429095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -10242,19 +10242,19 @@
         <v>25536</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18318</v>
+        <v>18148</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36619</v>
+        <v>36951</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0161589523565734</v>
+        <v>0.01615895235657341</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01159136166888173</v>
+        <v>0.01148398134418817</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02317201533665043</v>
+        <v>0.02338191038216022</v>
       </c>
     </row>
     <row r="13">
@@ -10271,19 +10271,19 @@
         <v>45551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33103</v>
+        <v>33226</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62612</v>
+        <v>61827</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05623816825381197</v>
+        <v>0.056238168253812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04086945534380423</v>
+        <v>0.04102124001367895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07730188716529879</v>
+        <v>0.0763319528710009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -10292,19 +10292,19 @@
         <v>42274</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32038</v>
+        <v>33157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53913</v>
+        <v>54877</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05487687141698673</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04158886981493932</v>
+        <v>0.04304158922480752</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06998603366359486</v>
+        <v>0.07123738341138579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -10313,19 +10313,19 @@
         <v>87825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70535</v>
+        <v>71684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106103</v>
+        <v>107370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05557458929828869</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04463334442771563</v>
+        <v>0.0453604611242236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06714040693509349</v>
+        <v>0.06794215627825372</v>
       </c>
     </row>
     <row r="14">
@@ -10342,19 +10342,19 @@
         <v>60533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43835</v>
+        <v>44709</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>79307</v>
+        <v>79380</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07473448511201067</v>
+        <v>0.07473448511201068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0541189898667082</v>
+        <v>0.05519791262305487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0979132078574</v>
+        <v>0.0980037119021841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -10363,19 +10363,19 @@
         <v>74172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58321</v>
+        <v>60472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89127</v>
+        <v>88856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09628507183504567</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07570749292326359</v>
+        <v>0.07849974169984773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1156976540539093</v>
+        <v>0.1153467252820569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -10384,19 +10384,19 @@
         <v>134705</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112724</v>
+        <v>113945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>155374</v>
+        <v>159073</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08523955310433534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07133016143823495</v>
+        <v>0.07210308307598373</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09831818456842423</v>
+        <v>0.1006590324473258</v>
       </c>
     </row>
     <row r="15">
@@ -10413,19 +10413,19 @@
         <v>243329</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>214497</v>
+        <v>215805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>274281</v>
+        <v>273947</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3004161392175435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2648198991166179</v>
+        <v>0.2664350094095289</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3386299654341151</v>
+        <v>0.3382181207866782</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>175</v>
@@ -10434,19 +10434,19 @@
         <v>146281</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>126932</v>
+        <v>125726</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>168511</v>
+        <v>167191</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1898911528962902</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1647734150024328</v>
+        <v>0.1632084781535975</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2187490263947315</v>
+        <v>0.217035563978122</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>366</v>
@@ -10455,19 +10455,19 @@
         <v>389610</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>355820</v>
+        <v>350894</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>428680</v>
+        <v>425624</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2465395320013478</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2251582112500841</v>
+        <v>0.2220410506701332</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2712628887364207</v>
+        <v>0.2693287011339104</v>
       </c>
     </row>
     <row r="16">
@@ -10484,19 +10484,19 @@
         <v>20166</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11875</v>
+        <v>12714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30166</v>
+        <v>31016</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02489681438870249</v>
+        <v>0.0248968143887025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01466061173805437</v>
+        <v>0.01569684152350749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03724387782893949</v>
+        <v>0.0382922349915837</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -10505,19 +10505,19 @@
         <v>6014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2948</v>
+        <v>2621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11244</v>
+        <v>10733</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.007806797857554651</v>
+        <v>0.00780679785755465</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00382719837546311</v>
+        <v>0.003402015022844982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01459549585930859</v>
+        <v>0.01393224113041599</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -10526,19 +10526,19 @@
         <v>26180</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17678</v>
+        <v>17628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38183</v>
+        <v>39853</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0165660998723426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01118635306966536</v>
+        <v>0.01115474183698562</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02416140891515286</v>
+        <v>0.02521872993387817</v>
       </c>
     </row>
     <row r="17">
@@ -10602,19 +10602,19 @@
         <v>431932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>400983</v>
+        <v>402317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>462710</v>
+        <v>460945</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5332678529695751</v>
+        <v>0.5332678529695752</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4950577849605167</v>
+        <v>0.4967053533100812</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5712661551955348</v>
+        <v>0.5690869844949571</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>771</v>
@@ -10623,19 +10623,19 @@
         <v>484525</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>460431</v>
+        <v>459054</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>506605</v>
+        <v>507836</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6289748567641165</v>
+        <v>0.6289748567641164</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5976980387979496</v>
+        <v>0.5959096303851562</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6576368006175436</v>
+        <v>0.6592357466928964</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1253</v>
@@ -10644,19 +10644,19 @@
         <v>916457</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>879828</v>
+        <v>876445</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>956096</v>
+        <v>956572</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5799212733671122</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5567429193186053</v>
+        <v>0.5546021747355048</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6050044716220258</v>
+        <v>0.6053055013318739</v>
       </c>
     </row>
     <row r="19">
@@ -10748,19 +10748,19 @@
         <v>5602</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2215</v>
+        <v>2051</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13907</v>
+        <v>13418</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01172680555972455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004637331682602509</v>
+        <v>0.004292583683155628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02911006353755196</v>
+        <v>0.02808800569990961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -10769,19 +10769,19 @@
         <v>8908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4542</v>
+        <v>4448</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18994</v>
+        <v>18285</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01913913578144571</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009759828038456063</v>
+        <v>0.009557272824132304</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04081064396466838</v>
+        <v>0.03928694832776515</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -10790,19 +10790,19 @@
         <v>14510</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8124</v>
+        <v>7595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26076</v>
+        <v>24384</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01538464897532824</v>
+        <v>0.01538464897532823</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008613891557001405</v>
+        <v>0.008052686265723707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0276481632491955</v>
+        <v>0.0258535564669742</v>
       </c>
     </row>
     <row r="21">
@@ -10819,19 +10819,19 @@
         <v>35662</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24342</v>
+        <v>24877</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47606</v>
+        <v>48670</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07465016324005429</v>
+        <v>0.0746501632400543</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05095335066124952</v>
+        <v>0.05207501611308766</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09965238283260441</v>
+        <v>0.1018795738734517</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -10840,19 +10840,19 @@
         <v>24493</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17514</v>
+        <v>17395</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32902</v>
+        <v>33366</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05262490328365908</v>
+        <v>0.0526249032836591</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03763030007591845</v>
+        <v>0.03737344375152312</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07069156076269499</v>
+        <v>0.07168903987123172</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>67</v>
@@ -10861,19 +10861,19 @@
         <v>60155</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46620</v>
+        <v>46338</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75043</v>
+        <v>76417</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.06378111805472629</v>
+        <v>0.06378111805472628</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04943029717366784</v>
+        <v>0.04913153097229575</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07956663811941021</v>
+        <v>0.08102331214442061</v>
       </c>
     </row>
     <row r="22">
@@ -10890,19 +10890,19 @@
         <v>55448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40717</v>
+        <v>40290</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74525</v>
+        <v>73335</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1160669883122524</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08523181934043661</v>
+        <v>0.08433723600305874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1560011097430555</v>
+        <v>0.1535087160458781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -10911,19 +10911,19 @@
         <v>73618</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61297</v>
+        <v>59550</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91042</v>
+        <v>89462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1581734967168749</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1316997243424547</v>
+        <v>0.1279468624466798</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1956087606664129</v>
+        <v>0.1922140983578496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -10932,19 +10932,19 @@
         <v>129066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107644</v>
+        <v>108394</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>151256</v>
+        <v>151116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1368457461272471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.114132554665864</v>
+        <v>0.114927555130574</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1603735283738739</v>
+        <v>0.1602244103637349</v>
       </c>
     </row>
     <row r="23">
@@ -10961,19 +10961,19 @@
         <v>80056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61465</v>
+        <v>60996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>103237</v>
+        <v>103766</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1675769000756896</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1286631768689155</v>
+        <v>0.1276805156666177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2161023814329704</v>
+        <v>0.2172085362047919</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>72</v>
@@ -10982,19 +10982,19 @@
         <v>63097</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50659</v>
+        <v>50718</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79319</v>
+        <v>77722</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1355681648883667</v>
+        <v>0.1355681648883668</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1088434320204257</v>
+        <v>0.1089715173390875</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1704218793241383</v>
+        <v>0.1669896705140551</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>128</v>
@@ -11003,19 +11003,19 @@
         <v>143153</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>117569</v>
+        <v>121139</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>168631</v>
+        <v>172561</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1517812005123255</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1246558121279467</v>
+        <v>0.1284412093653964</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1787955739221966</v>
+        <v>0.1829621853140246</v>
       </c>
     </row>
     <row r="24">
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7715</v>
+        <v>6783</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004369404950850378</v>
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01614950291329317</v>
+        <v>0.01419807908923708</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3605</v>
+        <v>4292</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001526353506276416</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.007746009959014028</v>
+        <v>0.009222483075504072</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -11074,19 +11074,19 @@
         <v>2798</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8865</v>
+        <v>8365</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.002966413354997996</v>
+        <v>0.002966413354997995</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0007494804632682358</v>
+        <v>0.0007534211798120019</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009398931190736625</v>
+        <v>0.008869028515944597</v>
       </c>
     </row>
     <row r="25">
@@ -11150,19 +11150,19 @@
         <v>298869</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>272806</v>
+        <v>272639</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>320014</v>
+        <v>322099</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6256097378614287</v>
+        <v>0.6256097378614288</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5710535034066673</v>
+        <v>0.5707042062840393</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6698716656031374</v>
+        <v>0.6742358255946324</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>421</v>
@@ -11171,19 +11171,19 @@
         <v>294600</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>274381</v>
+        <v>273296</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>312743</v>
+        <v>311889</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.632967945823377</v>
+        <v>0.6329679458233772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5895250086334272</v>
+        <v>0.5871947378212795</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6719495782106626</v>
+        <v>0.6701127047807335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>714</v>
@@ -11192,19 +11192,19 @@
         <v>593469</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>562804</v>
+        <v>563759</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>624707</v>
+        <v>625685</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6292408729753749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5967270699834439</v>
+        <v>0.5977394812327037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6623620684540736</v>
+        <v>0.6633986603034564</v>
       </c>
     </row>
     <row r="27">
@@ -11296,19 +11296,19 @@
         <v>10822</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5312</v>
+        <v>5054</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24605</v>
+        <v>24126</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01572533359855716</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007718270220577295</v>
+        <v>0.007343617657753977</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03575350400127732</v>
+        <v>0.03505741703079659</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -11317,19 +11317,19 @@
         <v>13111</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8444</v>
+        <v>8054</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>20772</v>
+        <v>20260</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01804120040154877</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01161946475959985</v>
+        <v>0.01108228963460535</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02858294475852184</v>
+        <v>0.02787925164915627</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -11338,19 +11338,19 @@
         <v>23933</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16071</v>
+        <v>15785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38041</v>
+        <v>36733</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01691478658363157</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01135849323627807</v>
+        <v>0.01115605567344171</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02688573821438023</v>
+        <v>0.02596145748598041</v>
       </c>
     </row>
     <row r="29">
@@ -11367,19 +11367,19 @@
         <v>27894</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18910</v>
+        <v>18486</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40914</v>
+        <v>41520</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04053150593683892</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02747762693277258</v>
+        <v>0.02686201279082941</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05945133854797174</v>
+        <v>0.06033104234959149</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -11388,19 +11388,19 @@
         <v>34584</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26080</v>
+        <v>26059</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45387</v>
+        <v>45407</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04758964333503203</v>
+        <v>0.04758964333503204</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03588819754791383</v>
+        <v>0.03585929883294767</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0624548104046441</v>
+        <v>0.06248311619431655</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -11409,19 +11409,19 @@
         <v>62478</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>49393</v>
+        <v>49305</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77891</v>
+        <v>77265</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04415663782546963</v>
+        <v>0.04415663782546964</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03490912297874347</v>
+        <v>0.03484691876769497</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05505016432514366</v>
+        <v>0.05460752593446545</v>
       </c>
     </row>
     <row r="30">
@@ -11438,19 +11438,19 @@
         <v>60767</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44698</v>
+        <v>43842</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81158</v>
+        <v>82153</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08829912559465039</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06494992245575359</v>
+        <v>0.06370503407826487</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.117928454400283</v>
+        <v>0.1193742384103278</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>88</v>
@@ -11459,19 +11459,19 @@
         <v>74066</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>59050</v>
+        <v>60966</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>90986</v>
+        <v>90811</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1019199976483256</v>
+        <v>0.1019199976483257</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08125575491270284</v>
+        <v>0.08389237260524963</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1252022284687498</v>
+        <v>0.1249615726770193</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>132</v>
@@ -11480,19 +11480,19 @@
         <v>134834</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>113187</v>
+        <v>113101</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>161082</v>
+        <v>163593</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09529494543309357</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07999561034831773</v>
+        <v>0.0799355153715313</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1138462661661679</v>
+        <v>0.1156206992695516</v>
       </c>
     </row>
     <row r="31">
@@ -11509,19 +11509,19 @@
         <v>184335</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>161299</v>
+        <v>162561</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>210067</v>
+        <v>210397</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.267852032600614</v>
+        <v>0.2678520326006139</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2343798055493353</v>
+        <v>0.2362132558780038</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3052420798111919</v>
+        <v>0.3057220712558797</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>143</v>
@@ -11530,19 +11530,19 @@
         <v>119642</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>102662</v>
+        <v>101239</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>139298</v>
+        <v>140495</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1646344563487811</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1412695042483567</v>
+        <v>0.1393114800693507</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1916831297625938</v>
+        <v>0.1933292779879233</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>301</v>
@@ -11551,19 +11551,19 @@
         <v>303977</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>273925</v>
+        <v>274423</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>337433</v>
+        <v>337775</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2148384248981794</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1935990122765959</v>
+        <v>0.1939510053829287</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2384836130573854</v>
+        <v>0.2387253241822262</v>
       </c>
     </row>
     <row r="32">
@@ -11580,19 +11580,19 @@
         <v>4942</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1749</v>
+        <v>1808</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10728</v>
+        <v>11888</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.007181476232852443</v>
+        <v>0.007181476232852441</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002541936678390554</v>
+        <v>0.002626477195939917</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01558824593855685</v>
+        <v>0.01727345424471453</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -11601,19 +11601,19 @@
         <v>8341</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4958</v>
+        <v>4513</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14166</v>
+        <v>14283</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01147708879746948</v>
+        <v>0.01147708879746949</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006822794288798488</v>
+        <v>0.006210677377030531</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01949377817100341</v>
+        <v>0.01965369481031067</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -11622,19 +11622,19 @@
         <v>13283</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7770</v>
+        <v>8239</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20366</v>
+        <v>21997</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00938774698258062</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005491589768940386</v>
+        <v>0.005822745891821588</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01439410619168284</v>
+        <v>0.01554662326532152</v>
       </c>
     </row>
     <row r="33">
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6093</v>
+        <v>5359</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001560627244639512</v>
@@ -11663,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.008852889578040975</v>
+        <v>0.007786378887810905</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5417</v>
+        <v>5429</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0007590730566667899</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.003828352696463814</v>
+        <v>0.003837317970054</v>
       </c>
     </row>
     <row r="34">
@@ -11714,19 +11714,19 @@
         <v>398363</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>372837</v>
+        <v>372913</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>425284</v>
+        <v>424720</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5788498987918476</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5417589967397572</v>
+        <v>0.5418692988813134</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6179685341811568</v>
+        <v>0.6171495746431146</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>724</v>
@@ -11735,19 +11735,19 @@
         <v>476968</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>455240</v>
+        <v>453436</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>503920</v>
+        <v>498310</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.656337613468843</v>
+        <v>0.6563376134688431</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6264381690585998</v>
+        <v>0.6239559448517777</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6934241660381079</v>
+        <v>0.6857043710559478</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1226</v>
@@ -11756,19 +11756,19 @@
         <v>875331</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>841018</v>
+        <v>838618</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>912583</v>
+        <v>909657</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.6186483852203783</v>
+        <v>0.6186483852203785</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5943969199844507</v>
+        <v>0.5927011144209691</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6449761556079181</v>
+        <v>0.6429083555348346</v>
       </c>
     </row>
     <row r="35">
@@ -11860,19 +11860,19 @@
         <v>36566</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25697</v>
+        <v>25087</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53365</v>
+        <v>51179</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01461033782596627</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01026753197994712</v>
+        <v>0.01002365679197371</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02132267215423857</v>
+        <v>0.0204491538315642</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>67</v>
@@ -11881,19 +11881,19 @@
         <v>44778</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>34120</v>
+        <v>34119</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>57717</v>
+        <v>56975</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01780182175985939</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0135645847975598</v>
+        <v>0.01356431763096018</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02294580895717802</v>
+        <v>0.02265092237952801</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>103</v>
@@ -11902,19 +11902,19 @@
         <v>81344</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>66239</v>
+        <v>64707</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>102436</v>
+        <v>99746</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01621008666564352</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01320004746469589</v>
+        <v>0.01289461833246591</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02041322837088506</v>
+        <v>0.01987720749010301</v>
       </c>
     </row>
     <row r="37">
@@ -11931,19 +11931,19 @@
         <v>125354</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>104441</v>
+        <v>104899</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>152245</v>
+        <v>151828</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05008635529375554</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04173021072934083</v>
+        <v>0.04191335641779505</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06083088103018915</v>
+        <v>0.06066444494446616</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>168</v>
@@ -11952,19 +11952,19 @@
         <v>122274</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>105169</v>
+        <v>104400</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>142595</v>
+        <v>141929</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.04861105208046099</v>
+        <v>0.04861105208046101</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04181086604442528</v>
+        <v>0.04150515956836411</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05668978499142377</v>
+        <v>0.05642504591386344</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>278</v>
@@ -11973,19 +11973,19 @@
         <v>247628</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>222243</v>
+        <v>223429</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>279810</v>
+        <v>277852</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04934685146026419</v>
+        <v>0.04934685146026418</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04428817515684271</v>
+        <v>0.04452438726445336</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05576005445928184</v>
+        <v>0.05536969119349885</v>
       </c>
     </row>
     <row r="38">
@@ -12002,19 +12002,19 @@
         <v>203110</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>170506</v>
+        <v>175522</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>233635</v>
+        <v>237441</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08115446697065386</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06812712273879482</v>
+        <v>0.07013125871409759</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09335107614572424</v>
+        <v>0.09487193401030866</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>324</v>
@@ -12023,19 +12023,19 @@
         <v>263203</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>235584</v>
+        <v>235160</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>293039</v>
+        <v>292430</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.1046383726763269</v>
+        <v>0.104638372676327</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09365834667809123</v>
+        <v>0.09348957468302041</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1165001061249042</v>
+        <v>0.1162576763851632</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>479</v>
@@ -12044,19 +12044,19 @@
         <v>466313</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>425928</v>
+        <v>426421</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>511181</v>
+        <v>511725</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.09292590360700026</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08487813696310199</v>
+        <v>0.08497636186620067</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1018671858019323</v>
+        <v>0.1019755577057565</v>
       </c>
     </row>
     <row r="39">
@@ -12073,19 +12073,19 @@
         <v>632586</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>586947</v>
+        <v>582581</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>684389</v>
+        <v>685923</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2527555232515478</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2345199946597576</v>
+        <v>0.2327756337054795</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2734539422173953</v>
+        <v>0.2740666692999298</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>505</v>
@@ -12094,19 +12094,19 @@
         <v>417004</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>383952</v>
+        <v>382538</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>453989</v>
+        <v>456152</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1657830095068384</v>
+        <v>0.1657830095068385</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1526429426987845</v>
+        <v>0.152081126653929</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1804869872875857</v>
+        <v>0.1813468503357611</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1017</v>
@@ -12115,19 +12115,19 @@
         <v>1049590</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>996644</v>
+        <v>984146</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1116205</v>
+        <v>1107937</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2091600733514789</v>
+        <v>0.209160073351479</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1986091146820071</v>
+        <v>0.1961186020707653</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.222435026983542</v>
+        <v>0.2207874830192252</v>
       </c>
     </row>
     <row r="40">
@@ -12144,19 +12144,19 @@
         <v>38837</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27128</v>
+        <v>27317</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>59246</v>
+        <v>56132</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01551760972531683</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01083917860846091</v>
+        <v>0.0109147824316444</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02367220527487773</v>
+        <v>0.02242814028092153</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>41</v>
@@ -12165,19 +12165,19 @@
         <v>25979</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>18662</v>
+        <v>18611</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>34854</v>
+        <v>34757</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01032822057030211</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007419341085841622</v>
+        <v>0.007398769372137695</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01385647696615989</v>
+        <v>0.01381783760673392</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>78</v>
@@ -12186,19 +12186,19 @@
         <v>64816</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>50511</v>
+        <v>50967</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>84202</v>
+        <v>84423</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01291639992720211</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01006565619733091</v>
+        <v>0.01015668614626681</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0167795333938279</v>
+        <v>0.0168236841206375</v>
       </c>
     </row>
     <row r="41">
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11272</v>
+        <v>10847</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001216460254915705</v>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.004503686211189752</v>
+        <v>0.004334212432669962</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10760</v>
+        <v>10893</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0006067028750811056</v>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.00214413582958268</v>
+        <v>0.002170744777273467</v>
       </c>
     </row>
     <row r="42">
@@ -12278,19 +12278,19 @@
         <v>1463261</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1408008</v>
+        <v>1408432</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1514324</v>
+        <v>1521043</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.584659246677844</v>
+        <v>0.5846592466778441</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5625824195762442</v>
+        <v>0.5627520463989799</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6050620766564639</v>
+        <v>0.6077466204680971</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2633</v>
@@ -12299,19 +12299,19 @@
         <v>1642120</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1596641</v>
+        <v>1598040</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1683974</v>
+        <v>1684701</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.652837523406212</v>
+        <v>0.6528375234062122</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6347568650263131</v>
+        <v>0.6353131373371758</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6694769003940082</v>
+        <v>0.6697660687431745</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4339</v>
@@ -12320,19 +12320,19 @@
         <v>3105381</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3038776</v>
+        <v>3035197</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3176968</v>
+        <v>3179009</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6188339821133299</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.605561186385202</v>
+        <v>0.6048478893994119</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6330997537777139</v>
+        <v>0.6335065274190012</v>
       </c>
     </row>
     <row r="43">
